--- a/test/Assembly.Kernel.Acceptance.TestUtil/test-data/Benchmarktool assemblage - Failure mechanism without length-effect.xlsx
+++ b/test/Assembly.Kernel.Acceptance.TestUtil/test-data/Benchmarktool assemblage - Failure mechanism without length-effect.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50EA8F4-1DA6-4990-AC47-9166168612D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEF8DD3-9E7A-4536-89DD-8FB00DAC866F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="97">
   <si>
     <t>Faalpad</t>
   </si>
   <si>
-    <t>Erosie van het buitentalud</t>
-  </si>
-  <si>
     <t>Ntraject</t>
   </si>
   <si>
@@ -319,6 +316,12 @@
   </si>
   <si>
     <t>P2</t>
+  </si>
+  <si>
+    <t>Gecorreleerd</t>
+  </si>
+  <si>
+    <t>Erosie van het binnentalud</t>
   </si>
 </sst>
 </file>
@@ -633,29 +636,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="darkUp">
-          <fgColor theme="0"/>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill>
           <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
@@ -693,6 +673,29 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="darkUp">
+          <fgColor theme="0"/>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1042,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:V77"/>
+  <dimension ref="B2:V78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,12 +1074,12 @@
         <v>0</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1084,31 +1087,31 @@
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="6">
-        <v>4.4567400000000003E-6</v>
+        <v>95</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="6">
         <v>4.4567400000000003E-6</v>
@@ -1116,212 +1119,158 @@
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="C8" s="6">
-        <f>IFERROR(MAX(U13:U73),"GR")</f>
-        <v>2.2283699999681161E-6</v>
+        <v>4.4567400000000003E-6</v>
       </c>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="6">
-        <f>MAX(V13:V73)</f>
+        <f>IFERROR(MAX(U14:U74),"GR")</f>
         <v>2.2283699999681161E-6</v>
       </c>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="6">
+        <f>MAX(V14:V74)</f>
+        <v>2.2283699999681161E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" s="6">
+        <f>IFERROR(1-PRODUCT(M14:M74),"GR")</f>
+        <v>1.2622095327596838E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C10" s="6">
-        <f>IFERROR(1-PRODUCT(M13:M73),"GR")</f>
+      <c r="C12" s="30">
+        <f>1-PRODUCT(N14:N74)</f>
         <v>1.2622095327596838E-5</v>
       </c>
     </row>
-    <row r="11" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="30">
-        <f>1-PRODUCT(N13:N73)</f>
-        <v>1.2622095327596838E-5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B12" s="35"/>
-      <c r="C12" s="23"/>
-    </row>
-    <row r="13" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="35"/>
+      <c r="C13" s="23"/>
+    </row>
+    <row r="14" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="2:22" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
+      <c r="C15" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="G15" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="H15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="9" t="s">
+      <c r="I15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="J15" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="10" t="s">
+      <c r="K15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="K14" s="12" t="s">
+      <c r="L15" s="1"/>
+      <c r="M15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="2" t="s">
+      <c r="N15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N14" s="13" t="s">
+      <c r="O15" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="O14" s="13" t="s">
+      <c r="P15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="P14" s="13" t="s">
+      <c r="Q15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="Q14" s="14" t="s">
+      <c r="R15" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="14" t="s">
+      <c r="S15" s="15"/>
+      <c r="T15" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="S14" s="15"/>
-      <c r="T14" s="14" t="s">
+      <c r="U15" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" s="36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="U14" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="V14" s="36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="15">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="15">
         <v>0.21</v>
       </c>
-      <c r="E15" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="18"/>
-      <c r="H15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="18">
+      <c r="E16" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="18">
         <v>4.8871199999999999E-7</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J16" s="19">
         <v>4.8871199999999999E-7</v>
       </c>
-      <c r="K15" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" s="21">
+      <c r="K16" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M16" s="21">
         <v>0.99999951128800002</v>
       </c>
-      <c r="N15" s="22">
+      <c r="N16" s="22">
         <v>0.99999951128800002</v>
       </c>
-      <c r="O15" s="22">
+      <c r="O16" s="22">
         <v>9.7742399999999998E-7</v>
       </c>
-      <c r="P15" s="22">
+      <c r="P16" s="22">
         <v>9.7742399999999998E-7</v>
-      </c>
-      <c r="Q15" s="23">
-        <v>3.3333333333333333E-6</v>
-      </c>
-      <c r="R15" s="23">
-        <v>2</v>
-      </c>
-      <c r="S15" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="T15" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="U15" s="22">
-        <f>1-M15</f>
-        <v>4.8871199997968517E-7</v>
-      </c>
-      <c r="V15" s="6">
-        <f>1-N15</f>
-        <v>4.8871199997968517E-7</v>
-      </c>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B16" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="23">
-        <v>0.21</v>
-      </c>
-      <c r="D16" s="23">
-        <v>0.24</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="6">
-        <v>2.2283700000000001E-6</v>
-      </c>
-      <c r="J16" s="22">
-        <v>2.2283700000000001E-6</v>
-      </c>
-      <c r="K16" s="26" t="s">
-        <v>86</v>
-      </c>
-      <c r="M16" s="21">
-        <v>0.99999777163000003</v>
-      </c>
-      <c r="N16" s="22">
-        <v>0.99999777163000003</v>
-      </c>
-      <c r="O16" s="22">
-        <v>4.4567400000000003E-6</v>
-      </c>
-      <c r="P16" s="22">
-        <v>4.4567400000000003E-6</v>
       </c>
       <c r="Q16" s="23">
         <v>3.3333333333333333E-6</v>
@@ -1330,60 +1279,60 @@
         <v>2</v>
       </c>
       <c r="S16" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T16" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U16" s="22">
-        <f t="shared" ref="U16:U73" si="0">1-M16</f>
-        <v>2.2283699999681161E-6</v>
+        <f>1-M16</f>
+        <v>4.8871199997968517E-7</v>
       </c>
       <c r="V16" s="6">
-        <f t="shared" ref="V16:V73" si="1">1-N16</f>
-        <v>2.2283699999681161E-6</v>
+        <f>1-N16</f>
+        <v>4.8871199997968517E-7</v>
       </c>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="23">
+        <v>0.21</v>
+      </c>
+      <c r="D17" s="23">
         <v>0.24</v>
       </c>
-      <c r="D17" s="23">
-        <v>0.34</v>
-      </c>
       <c r="E17" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" s="6">
-        <v>5.3529199999999997E-7</v>
+        <v>2.2283700000000001E-6</v>
       </c>
       <c r="J17" s="22">
-        <v>5.3529199999999997E-7</v>
+        <v>2.2283700000000001E-6</v>
       </c>
       <c r="K17" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M17" s="21">
-        <v>0.99999946470800005</v>
+        <v>0.99999777163000003</v>
       </c>
       <c r="N17" s="22">
-        <v>0.99999946470800005</v>
+        <v>0.99999777163000003</v>
       </c>
       <c r="O17" s="22">
-        <v>1.0705839999999999E-6</v>
+        <v>4.4567400000000003E-6</v>
       </c>
       <c r="P17" s="22">
-        <v>1.0705839999999999E-6</v>
+        <v>4.4567400000000003E-6</v>
       </c>
       <c r="Q17" s="23">
         <v>3.3333333333333333E-6</v>
@@ -1392,122 +1341,122 @@
         <v>2</v>
       </c>
       <c r="S17" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T17" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U17" s="22">
-        <f t="shared" si="0"/>
-        <v>5.3529199994795107E-7</v>
+        <f t="shared" ref="U17:U74" si="0">1-M17</f>
+        <v>2.2283699999681161E-6</v>
       </c>
       <c r="V17" s="6">
-        <f t="shared" si="1"/>
-        <v>5.3529199994795107E-7</v>
+        <f t="shared" ref="V17:V74" si="1">1-N17</f>
+        <v>2.2283699999681161E-6</v>
       </c>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="23">
+        <v>0.24</v>
+      </c>
+      <c r="D18" s="23">
         <v>0.34</v>
       </c>
-      <c r="D18" s="23">
-        <v>0.91</v>
-      </c>
       <c r="E18" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="6">
-        <v>2.4707600000000001E-7</v>
+        <v>5.3529199999999997E-7</v>
       </c>
       <c r="J18" s="22">
-        <v>2.4707600000000001E-7</v>
+        <v>5.3529199999999997E-7</v>
       </c>
       <c r="K18" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M18" s="21">
-        <v>0.99999975292400001</v>
+        <v>0.99999946470800005</v>
       </c>
       <c r="N18" s="22">
-        <v>0.99999975292400001</v>
+        <v>0.99999946470800005</v>
       </c>
       <c r="O18" s="22">
-        <v>4.9415200000000002E-7</v>
+        <v>1.0705839999999999E-6</v>
       </c>
       <c r="P18" s="22">
-        <v>4.9415200000000002E-7</v>
+        <v>1.0705839999999999E-6</v>
       </c>
       <c r="Q18" s="23">
-        <v>3.3333333333333335E-7</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R18" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T18" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U18" s="22">
         <f t="shared" si="0"/>
-        <v>2.4707599999285179E-7</v>
+        <v>5.3529199994795107E-7</v>
       </c>
       <c r="V18" s="6">
         <f t="shared" si="1"/>
-        <v>2.4707599999285179E-7</v>
+        <v>5.3529199994795107E-7</v>
       </c>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="23">
+        <v>0.34</v>
+      </c>
+      <c r="D19" s="23">
         <v>0.91</v>
       </c>
-      <c r="D19" s="23">
-        <v>1.44</v>
-      </c>
       <c r="E19" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" s="6">
-        <v>1.6301700000000001E-7</v>
+        <v>2.4707600000000001E-7</v>
       </c>
       <c r="J19" s="22">
-        <v>1.6301700000000001E-7</v>
+        <v>2.4707600000000001E-7</v>
       </c>
       <c r="K19" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M19" s="21">
-        <v>0.99999983698299999</v>
+        <v>0.99999975292400001</v>
       </c>
       <c r="N19" s="22">
-        <v>0.99999983698299999</v>
+        <v>0.99999975292400001</v>
       </c>
       <c r="O19" s="22">
-        <v>3.2603400000000002E-7</v>
+        <v>4.9415200000000002E-7</v>
       </c>
       <c r="P19" s="22">
-        <v>3.2603400000000002E-7</v>
+        <v>4.9415200000000002E-7</v>
       </c>
       <c r="Q19" s="23">
         <v>3.3333333333333335E-7</v>
@@ -1516,66 +1465,66 @@
         <v>1</v>
       </c>
       <c r="S19" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T19" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U19" s="22">
         <f t="shared" si="0"/>
-        <v>1.6301700000997954E-7</v>
+        <v>2.4707599999285179E-7</v>
       </c>
       <c r="V19" s="6">
         <f t="shared" si="1"/>
-        <v>1.6301700000997954E-7</v>
+        <v>2.4707599999285179E-7</v>
       </c>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" s="23">
+        <v>0.91</v>
+      </c>
+      <c r="D20" s="23">
         <v>1.44</v>
       </c>
-      <c r="D20" s="23">
-        <v>1.96</v>
-      </c>
       <c r="E20" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I20" s="6">
-        <v>4.14189E-7</v>
+        <v>1.6301700000000001E-7</v>
       </c>
       <c r="J20" s="22">
-        <v>4.14189E-7</v>
+        <v>1.6301700000000001E-7</v>
       </c>
       <c r="K20" s="26" t="s">
         <v>86</v>
       </c>
       <c r="M20" s="21">
-        <v>0.99999958581100001</v>
+        <v>0.99999983698299999</v>
       </c>
       <c r="N20" s="22">
-        <v>0.99999958581100001</v>
+        <v>0.99999983698299999</v>
       </c>
       <c r="O20" s="22">
-        <v>8.2837800000000001E-7</v>
+        <v>3.2603400000000002E-7</v>
       </c>
       <c r="P20" s="22">
-        <v>8.2837800000000001E-7</v>
+        <v>3.2603400000000002E-7</v>
       </c>
       <c r="Q20" s="23">
-        <v>3.3333333333333333E-6</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R20" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S20" s="23" t="s">
         <v>86</v>
@@ -1585,53 +1534,53 @@
       </c>
       <c r="U20" s="22">
         <f t="shared" si="0"/>
-        <v>4.1418899998646452E-7</v>
+        <v>1.6301700000997954E-7</v>
       </c>
       <c r="V20" s="6">
         <f t="shared" si="1"/>
-        <v>4.1418899998646452E-7</v>
+        <v>1.6301700000997954E-7</v>
       </c>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C21" s="23">
+        <v>1.44</v>
+      </c>
+      <c r="D21" s="23">
         <v>1.96</v>
       </c>
-      <c r="D21" s="23">
-        <v>2.4900000000000002</v>
-      </c>
       <c r="E21" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I21" s="6">
-        <v>4.0974000000000001E-7</v>
+        <v>4.14189E-7</v>
       </c>
       <c r="J21" s="22">
-        <v>4.0974000000000001E-7</v>
+        <v>4.14189E-7</v>
       </c>
       <c r="K21" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M21" s="21">
-        <v>0.99999959025999996</v>
+        <v>0.99999958581100001</v>
       </c>
       <c r="N21" s="22">
-        <v>0.99999959025999996</v>
+        <v>0.99999958581100001</v>
       </c>
       <c r="O21" s="22">
-        <v>8.1948000000000003E-7</v>
+        <v>8.2837800000000001E-7</v>
       </c>
       <c r="P21" s="22">
-        <v>8.1948000000000003E-7</v>
+        <v>8.2837800000000001E-7</v>
       </c>
       <c r="Q21" s="23">
         <v>3.3333333333333333E-6</v>
@@ -1640,128 +1589,128 @@
         <v>2</v>
       </c>
       <c r="S21" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T21" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U21" s="22">
         <f t="shared" si="0"/>
-        <v>4.0974000004023736E-7</v>
+        <v>4.1418899998646452E-7</v>
       </c>
       <c r="V21" s="6">
         <f t="shared" si="1"/>
-        <v>4.0974000004023736E-7</v>
+        <v>4.1418899998646452E-7</v>
       </c>
     </row>
     <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" s="23">
+        <v>1.96</v>
+      </c>
+      <c r="D22" s="23">
         <v>2.4900000000000002</v>
       </c>
-      <c r="D22" s="23">
-        <v>3.01</v>
-      </c>
       <c r="E22" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I22" s="6">
-        <v>2.9829200000000001E-7</v>
+        <v>4.0974000000000001E-7</v>
       </c>
       <c r="J22" s="22">
-        <v>2.9829200000000001E-7</v>
+        <v>4.0974000000000001E-7</v>
       </c>
       <c r="K22" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M22" s="21">
-        <v>0.99999970170800001</v>
+        <v>0.99999959025999996</v>
       </c>
       <c r="N22" s="22">
-        <v>0.99999970170800001</v>
+        <v>0.99999959025999996</v>
       </c>
       <c r="O22" s="22">
-        <v>5.9658400000000002E-7</v>
+        <v>8.1948000000000003E-7</v>
       </c>
       <c r="P22" s="22">
-        <v>5.9658400000000002E-7</v>
+        <v>8.1948000000000003E-7</v>
       </c>
       <c r="Q22" s="23">
-        <v>3.3333333333333335E-7</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R22" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S22" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T22" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U22" s="22">
         <f t="shared" si="0"/>
-        <v>2.9829199998943068E-7</v>
+        <v>4.0974000004023736E-7</v>
       </c>
       <c r="V22" s="6">
         <f t="shared" si="1"/>
-        <v>2.9829199998943068E-7</v>
+        <v>4.0974000004023736E-7</v>
       </c>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C23" s="23">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="D23" s="23">
         <v>3.01</v>
       </c>
-      <c r="D23" s="23">
-        <v>3.54</v>
-      </c>
       <c r="E23" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I23" s="6">
-        <v>4.3527099999999998E-7</v>
+        <v>2.9829200000000001E-7</v>
       </c>
       <c r="J23" s="22">
-        <v>4.3527099999999998E-7</v>
+        <v>2.9829200000000001E-7</v>
       </c>
       <c r="K23" s="26" t="s">
         <v>86</v>
       </c>
       <c r="M23" s="21">
-        <v>0.99999956472899998</v>
+        <v>0.99999970170800001</v>
       </c>
       <c r="N23" s="22">
-        <v>0.99999956472899998</v>
+        <v>0.99999970170800001</v>
       </c>
       <c r="O23" s="22">
-        <v>8.7054199999999996E-7</v>
+        <v>5.9658400000000002E-7</v>
       </c>
       <c r="P23" s="22">
-        <v>8.7054199999999996E-7</v>
+        <v>5.9658400000000002E-7</v>
       </c>
       <c r="Q23" s="23">
-        <v>3.3333333333333333E-6</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R23" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S23" s="23" t="s">
         <v>86</v>
@@ -1771,53 +1720,53 @@
       </c>
       <c r="U23" s="22">
         <f t="shared" si="0"/>
-        <v>4.3527100002105357E-7</v>
+        <v>2.9829199998943068E-7</v>
       </c>
       <c r="V23" s="6">
         <f t="shared" si="1"/>
-        <v>4.3527100002105357E-7</v>
+        <v>2.9829199998943068E-7</v>
       </c>
     </row>
     <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C24" s="23">
+        <v>3.01</v>
+      </c>
+      <c r="D24" s="23">
         <v>3.54</v>
       </c>
-      <c r="D24" s="23">
-        <v>4.0599999999999996</v>
-      </c>
       <c r="E24" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I24" s="6">
-        <v>5.8199800000000005E-7</v>
+        <v>4.3527099999999998E-7</v>
       </c>
       <c r="J24" s="22">
-        <v>5.8199800000000005E-7</v>
+        <v>4.3527099999999998E-7</v>
       </c>
       <c r="K24" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M24" s="21">
-        <v>0.99999941800199998</v>
+        <v>0.99999956472899998</v>
       </c>
       <c r="N24" s="22">
-        <v>0.99999941800199998</v>
+        <v>0.99999956472899998</v>
       </c>
       <c r="O24" s="22">
-        <v>1.1639960000000001E-6</v>
+        <v>8.7054199999999996E-7</v>
       </c>
       <c r="P24" s="22">
-        <v>1.1639960000000001E-6</v>
+        <v>8.7054199999999996E-7</v>
       </c>
       <c r="Q24" s="23">
         <v>3.3333333333333333E-6</v>
@@ -1826,122 +1775,122 @@
         <v>2</v>
       </c>
       <c r="S24" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T24" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U24" s="22">
         <f t="shared" si="0"/>
-        <v>5.8199800001546009E-7</v>
+        <v>4.3527100002105357E-7</v>
       </c>
       <c r="V24" s="6">
         <f t="shared" si="1"/>
-        <v>5.8199800001546009E-7</v>
+        <v>4.3527100002105357E-7</v>
       </c>
     </row>
     <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C25" s="23">
+        <v>3.54</v>
+      </c>
+      <c r="D25" s="23">
         <v>4.0599999999999996</v>
       </c>
-      <c r="D25" s="23">
-        <v>4.58</v>
-      </c>
       <c r="E25" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I25" s="6">
-        <v>9.1537499999999995E-8</v>
+        <v>5.8199800000000005E-7</v>
       </c>
       <c r="J25" s="22">
-        <v>9.1537499999999995E-8</v>
+        <v>5.8199800000000005E-7</v>
       </c>
       <c r="K25" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M25" s="21">
-        <v>0.99999990846249998</v>
+        <v>0.99999941800199998</v>
       </c>
       <c r="N25" s="22">
-        <v>0.99999990846249998</v>
+        <v>0.99999941800199998</v>
       </c>
       <c r="O25" s="22">
-        <v>1.8307499999999999E-7</v>
+        <v>1.1639960000000001E-6</v>
       </c>
       <c r="P25" s="22">
-        <v>1.8307499999999999E-7</v>
+        <v>1.1639960000000001E-6</v>
       </c>
       <c r="Q25" s="23">
-        <v>3.3333333333333335E-7</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R25" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S25" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T25" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U25" s="22">
         <f t="shared" si="0"/>
-        <v>9.1537500024330143E-8</v>
+        <v>5.8199800001546009E-7</v>
       </c>
       <c r="V25" s="6">
         <f t="shared" si="1"/>
-        <v>9.1537500024330143E-8</v>
+        <v>5.8199800001546009E-7</v>
       </c>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C26" s="23">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="D26" s="23">
         <v>4.58</v>
       </c>
-      <c r="D26" s="23">
-        <v>5.1100000000000003</v>
-      </c>
       <c r="E26" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I26" s="6">
-        <v>6.9467900000000005E-8</v>
+        <v>9.1537499999999995E-8</v>
       </c>
       <c r="J26" s="22">
-        <v>6.9467900000000005E-8</v>
+        <v>9.1537499999999995E-8</v>
       </c>
       <c r="K26" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M26" s="21">
-        <v>0.99999993053210001</v>
+        <v>0.99999990846249998</v>
       </c>
       <c r="N26" s="22">
-        <v>0.99999993053210001</v>
+        <v>0.99999990846249998</v>
       </c>
       <c r="O26" s="22">
-        <v>1.3893580000000001E-7</v>
+        <v>1.8307499999999999E-7</v>
       </c>
       <c r="P26" s="22">
-        <v>1.3893580000000001E-7</v>
+        <v>1.8307499999999999E-7</v>
       </c>
       <c r="Q26" s="23">
         <v>3.3333333333333335E-7</v>
@@ -1950,60 +1899,60 @@
         <v>1</v>
       </c>
       <c r="S26" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T26" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U26" s="22">
         <f t="shared" si="0"/>
-        <v>6.9467899987962767E-8</v>
+        <v>9.1537500024330143E-8</v>
       </c>
       <c r="V26" s="6">
         <f t="shared" si="1"/>
-        <v>6.9467899987962767E-8</v>
+        <v>9.1537500024330143E-8</v>
       </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C27" s="23">
+        <v>4.58</v>
+      </c>
+      <c r="D27" s="23">
         <v>5.1100000000000003</v>
       </c>
-      <c r="D27" s="23">
-        <v>5.64</v>
-      </c>
       <c r="E27" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G27" s="6"/>
       <c r="H27" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I27" s="6">
-        <v>1.1827500000000001E-7</v>
+        <v>6.9467900000000005E-8</v>
       </c>
       <c r="J27" s="22">
-        <v>1.1827500000000001E-7</v>
+        <v>6.9467900000000005E-8</v>
       </c>
       <c r="K27" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M27" s="21">
-        <v>0.99999988172499998</v>
+        <v>0.99999993053210001</v>
       </c>
       <c r="N27" s="22">
-        <v>0.99999988172499998</v>
+        <v>0.99999993053210001</v>
       </c>
       <c r="O27" s="22">
-        <v>2.3655000000000001E-7</v>
+        <v>1.3893580000000001E-7</v>
       </c>
       <c r="P27" s="22">
-        <v>2.3655000000000001E-7</v>
+        <v>1.3893580000000001E-7</v>
       </c>
       <c r="Q27" s="23">
         <v>3.3333333333333335E-7</v>
@@ -2012,60 +1961,60 @@
         <v>1</v>
       </c>
       <c r="S27" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T27" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U27" s="22">
         <f t="shared" si="0"/>
-        <v>1.1827500001615476E-7</v>
+        <v>6.9467899987962767E-8</v>
       </c>
       <c r="V27" s="6">
         <f t="shared" si="1"/>
-        <v>1.1827500001615476E-7</v>
+        <v>6.9467899987962767E-8</v>
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="23">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="D28" s="23">
         <v>5.64</v>
       </c>
-      <c r="D28" s="23">
-        <v>6.24</v>
-      </c>
       <c r="E28" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I28" s="6">
-        <v>8.9703400000000001E-8</v>
+        <v>1.1827500000000001E-7</v>
       </c>
       <c r="J28" s="22">
-        <v>8.9703400000000001E-8</v>
+        <v>1.1827500000000001E-7</v>
       </c>
       <c r="K28" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M28" s="21">
-        <v>0.99999991029659996</v>
+        <v>0.99999988172499998</v>
       </c>
       <c r="N28" s="22">
-        <v>0.99999991029659996</v>
+        <v>0.99999988172499998</v>
       </c>
       <c r="O28" s="22">
-        <v>1.794068E-7</v>
+        <v>2.3655000000000001E-7</v>
       </c>
       <c r="P28" s="22">
-        <v>1.794068E-7</v>
+        <v>2.3655000000000001E-7</v>
       </c>
       <c r="Q28" s="23">
         <v>3.3333333333333335E-7</v>
@@ -2074,60 +2023,60 @@
         <v>1</v>
       </c>
       <c r="S28" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T28" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U28" s="22">
         <f t="shared" si="0"/>
-        <v>8.9703400041329928E-8</v>
+        <v>1.1827500001615476E-7</v>
       </c>
       <c r="V28" s="6">
         <f t="shared" si="1"/>
-        <v>8.9703400041329928E-8</v>
+        <v>1.1827500001615476E-7</v>
       </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="24" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C29" s="23">
+        <v>5.64</v>
+      </c>
+      <c r="D29" s="23">
         <v>6.24</v>
       </c>
-      <c r="D29" s="23">
-        <v>6.84</v>
-      </c>
       <c r="E29" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G29" s="6"/>
       <c r="H29" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I29" s="6">
-        <v>1.04505E-7</v>
+        <v>8.9703400000000001E-8</v>
       </c>
       <c r="J29" s="22">
-        <v>1.04505E-7</v>
+        <v>8.9703400000000001E-8</v>
       </c>
       <c r="K29" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M29" s="21">
-        <v>0.99999989549500001</v>
+        <v>0.99999991029659996</v>
       </c>
       <c r="N29" s="22">
-        <v>0.99999989549500001</v>
+        <v>0.99999991029659996</v>
       </c>
       <c r="O29" s="22">
-        <v>2.0900999999999999E-7</v>
+        <v>1.794068E-7</v>
       </c>
       <c r="P29" s="22">
-        <v>2.0900999999999999E-7</v>
+        <v>1.794068E-7</v>
       </c>
       <c r="Q29" s="23">
         <v>3.3333333333333335E-7</v>
@@ -2136,60 +2085,60 @@
         <v>1</v>
       </c>
       <c r="S29" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T29" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U29" s="22">
         <f t="shared" si="0"/>
-        <v>1.0450499998704288E-7</v>
+        <v>8.9703400041329928E-8</v>
       </c>
       <c r="V29" s="6">
         <f t="shared" si="1"/>
-        <v>1.0450499998704288E-7</v>
+        <v>8.9703400041329928E-8</v>
       </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C30" s="23">
+        <v>6.24</v>
+      </c>
+      <c r="D30" s="23">
         <v>6.84</v>
       </c>
-      <c r="D30" s="23">
-        <v>7.41</v>
-      </c>
       <c r="E30" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I30" s="6">
-        <v>1.12355E-7</v>
+        <v>1.04505E-7</v>
       </c>
       <c r="J30" s="22">
-        <v>1.12355E-7</v>
+        <v>1.04505E-7</v>
       </c>
       <c r="K30" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M30" s="21">
-        <v>0.99999988764500003</v>
+        <v>0.99999989549500001</v>
       </c>
       <c r="N30" s="22">
-        <v>0.99999988764500003</v>
+        <v>0.99999989549500001</v>
       </c>
       <c r="O30" s="22">
-        <v>2.2471000000000001E-7</v>
+        <v>2.0900999999999999E-7</v>
       </c>
       <c r="P30" s="22">
-        <v>2.2471000000000001E-7</v>
+        <v>2.0900999999999999E-7</v>
       </c>
       <c r="Q30" s="23">
         <v>3.3333333333333335E-7</v>
@@ -2198,60 +2147,60 @@
         <v>1</v>
       </c>
       <c r="S30" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T30" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U30" s="22">
         <f t="shared" si="0"/>
-        <v>1.1235499997042098E-7</v>
+        <v>1.0450499998704288E-7</v>
       </c>
       <c r="V30" s="6">
         <f t="shared" si="1"/>
-        <v>1.1235499997042098E-7</v>
+        <v>1.0450499998704288E-7</v>
       </c>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C31" s="23">
+        <v>6.84</v>
+      </c>
+      <c r="D31" s="23">
         <v>7.41</v>
       </c>
-      <c r="D31" s="23">
-        <v>7.94</v>
-      </c>
       <c r="E31" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G31" s="6"/>
       <c r="H31" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I31" s="6">
-        <v>1.70708E-7</v>
+        <v>1.12355E-7</v>
       </c>
       <c r="J31" s="22">
-        <v>1.70708E-7</v>
+        <v>1.12355E-7</v>
       </c>
       <c r="K31" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M31" s="21">
-        <v>0.99999982929200004</v>
+        <v>0.99999988764500003</v>
       </c>
       <c r="N31" s="22">
-        <v>0.99999982929200004</v>
+        <v>0.99999988764500003</v>
       </c>
       <c r="O31" s="22">
-        <v>3.4141599999999999E-7</v>
+        <v>2.2471000000000001E-7</v>
       </c>
       <c r="P31" s="22">
-        <v>3.4141599999999999E-7</v>
+        <v>2.2471000000000001E-7</v>
       </c>
       <c r="Q31" s="23">
         <v>3.3333333333333335E-7</v>
@@ -2260,60 +2209,60 @@
         <v>1</v>
       </c>
       <c r="S31" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T31" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U31" s="22">
         <f t="shared" si="0"/>
-        <v>1.7070799995799746E-7</v>
+        <v>1.1235499997042098E-7</v>
       </c>
       <c r="V31" s="6">
         <f t="shared" si="1"/>
-        <v>1.7070799995799746E-7</v>
+        <v>1.1235499997042098E-7</v>
       </c>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C32" s="23">
+        <v>7.41</v>
+      </c>
+      <c r="D32" s="23">
         <v>7.94</v>
       </c>
-      <c r="D32" s="23">
-        <v>8.0399999999999991</v>
-      </c>
       <c r="E32" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G32" s="6"/>
       <c r="H32" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I32" s="6">
-        <v>9.9740799999999995E-8</v>
+        <v>1.70708E-7</v>
       </c>
       <c r="J32" s="22">
-        <v>9.9740799999999995E-8</v>
+        <v>1.70708E-7</v>
       </c>
       <c r="K32" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M32" s="21">
-        <v>0.99999990025920005</v>
+        <v>0.99999982929200004</v>
       </c>
       <c r="N32" s="22">
-        <v>0.99999990025920005</v>
+        <v>0.99999982929200004</v>
       </c>
       <c r="O32" s="22">
-        <v>1.9948159999999999E-7</v>
+        <v>3.4141599999999999E-7</v>
       </c>
       <c r="P32" s="22">
-        <v>1.9948159999999999E-7</v>
+        <v>3.4141599999999999E-7</v>
       </c>
       <c r="Q32" s="23">
         <v>3.3333333333333335E-7</v>
@@ -2322,60 +2271,60 @@
         <v>1</v>
       </c>
       <c r="S32" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T32" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U32" s="22">
         <f t="shared" si="0"/>
-        <v>9.9740799952563464E-8</v>
+        <v>1.7070799995799746E-7</v>
       </c>
       <c r="V32" s="6">
         <f t="shared" si="1"/>
-        <v>9.9740799952563464E-8</v>
+        <v>1.7070799995799746E-7</v>
       </c>
     </row>
     <row r="33" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B33" s="24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C33" s="23">
+        <v>7.94</v>
+      </c>
+      <c r="D33" s="23">
         <v>8.0399999999999991</v>
       </c>
-      <c r="D33" s="23">
-        <v>8.5399999999999991</v>
-      </c>
       <c r="E33" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G33" s="6"/>
       <c r="H33" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33" s="6">
-        <v>1.4308899999999999E-7</v>
+        <v>9.9740799999999995E-8</v>
       </c>
       <c r="J33" s="22">
-        <v>1.4308899999999999E-7</v>
+        <v>9.9740799999999995E-8</v>
       </c>
       <c r="K33" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M33" s="21">
-        <v>0.99999985691100002</v>
+        <v>0.99999990025920005</v>
       </c>
       <c r="N33" s="22">
-        <v>0.99999985691100002</v>
+        <v>0.99999990025920005</v>
       </c>
       <c r="O33" s="22">
-        <v>2.8617799999999998E-7</v>
+        <v>1.9948159999999999E-7</v>
       </c>
       <c r="P33" s="22">
-        <v>2.8617799999999998E-7</v>
+        <v>1.9948159999999999E-7</v>
       </c>
       <c r="Q33" s="23">
         <v>3.3333333333333335E-7</v>
@@ -2384,66 +2333,66 @@
         <v>1</v>
       </c>
       <c r="S33" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T33" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U33" s="22">
         <f t="shared" si="0"/>
-        <v>1.4308899998205504E-7</v>
+        <v>9.9740799952563464E-8</v>
       </c>
       <c r="V33" s="6">
         <f t="shared" si="1"/>
-        <v>1.4308899998205504E-7</v>
+        <v>9.9740799952563464E-8</v>
       </c>
     </row>
     <row r="34" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B34" s="24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C34" s="23">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="D34" s="23">
         <v>8.5399999999999991</v>
       </c>
-      <c r="D34" s="23">
-        <v>8.91</v>
-      </c>
       <c r="E34" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I34" s="6">
-        <v>2.0494799999999999E-6</v>
+        <v>1.4308899999999999E-7</v>
       </c>
       <c r="J34" s="22">
-        <v>2.0494799999999999E-6</v>
+        <v>1.4308899999999999E-7</v>
       </c>
       <c r="K34" s="26" t="s">
         <v>86</v>
       </c>
       <c r="M34" s="21">
-        <v>0.99999795051999996</v>
+        <v>0.99999985691100002</v>
       </c>
       <c r="N34" s="22">
-        <v>0.99999795051999996</v>
+        <v>0.99999985691100002</v>
       </c>
       <c r="O34" s="22">
-        <v>4.0989599999999998E-6</v>
+        <v>2.8617799999999998E-7</v>
       </c>
       <c r="P34" s="22">
-        <v>4.0989599999999998E-6</v>
+        <v>2.8617799999999998E-7</v>
       </c>
       <c r="Q34" s="23">
-        <v>3.3333333333333333E-6</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R34" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S34" s="23" t="s">
         <v>86</v>
@@ -2453,53 +2402,53 @@
       </c>
       <c r="U34" s="22">
         <f t="shared" si="0"/>
-        <v>2.0494800000436797E-6</v>
+        <v>1.4308899998205504E-7</v>
       </c>
       <c r="V34" s="6">
         <f t="shared" si="1"/>
-        <v>2.0494800000436797E-6</v>
+        <v>1.4308899998205504E-7</v>
       </c>
     </row>
     <row r="35" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B35" s="24" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C35" s="23">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="D35" s="23">
         <v>8.91</v>
       </c>
-      <c r="D35" s="23">
-        <v>9.34</v>
-      </c>
       <c r="E35" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I35" s="6">
-        <v>4.8194700000000002E-7</v>
+        <v>2.0494799999999999E-6</v>
       </c>
       <c r="J35" s="22">
-        <v>4.8194700000000002E-7</v>
+        <v>2.0494799999999999E-6</v>
       </c>
       <c r="K35" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M35" s="21">
-        <v>0.99999951805300002</v>
+        <v>0.99999795051999996</v>
       </c>
       <c r="N35" s="22">
-        <v>0.99999951805300002</v>
+        <v>0.99999795051999996</v>
       </c>
       <c r="O35" s="22">
-        <v>9.6389400000000004E-7</v>
+        <v>4.0989599999999998E-6</v>
       </c>
       <c r="P35" s="22">
-        <v>9.6389400000000004E-7</v>
+        <v>4.0989599999999998E-6</v>
       </c>
       <c r="Q35" s="23">
         <v>3.3333333333333333E-6</v>
@@ -2508,128 +2457,128 @@
         <v>2</v>
       </c>
       <c r="S35" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T35" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U35" s="22">
         <f t="shared" si="0"/>
-        <v>4.8194699997505808E-7</v>
+        <v>2.0494800000436797E-6</v>
       </c>
       <c r="V35" s="6">
         <f t="shared" si="1"/>
-        <v>4.8194699997505808E-7</v>
+        <v>2.0494800000436797E-6</v>
       </c>
     </row>
     <row r="36" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B36" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C36" s="23">
+        <v>8.91</v>
+      </c>
+      <c r="D36" s="23">
         <v>9.34</v>
       </c>
-      <c r="D36" s="23">
-        <v>9.4600000000000009</v>
-      </c>
       <c r="E36" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F36" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I36" s="6">
-        <v>5.34078E-8</v>
+        <v>4.8194700000000002E-7</v>
       </c>
       <c r="J36" s="22">
-        <v>5.34078E-8</v>
+        <v>4.8194700000000002E-7</v>
       </c>
       <c r="K36" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M36" s="21">
-        <v>0.99999994659220004</v>
+        <v>0.99999951805300002</v>
       </c>
       <c r="N36" s="22">
-        <v>0.99999994659220004</v>
+        <v>0.99999951805300002</v>
       </c>
       <c r="O36" s="22">
-        <v>1.068156E-7</v>
+        <v>9.6389400000000004E-7</v>
       </c>
       <c r="P36" s="22">
-        <v>1.068156E-7</v>
+        <v>9.6389400000000004E-7</v>
       </c>
       <c r="Q36" s="23">
-        <v>3.3333333333333335E-7</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R36" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S36" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T36" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U36" s="22">
         <f t="shared" si="0"/>
-        <v>5.3407799960325519E-8</v>
+        <v>4.8194699997505808E-7</v>
       </c>
       <c r="V36" s="6">
         <f t="shared" si="1"/>
-        <v>5.3407799960325519E-8</v>
+        <v>4.8194699997505808E-7</v>
       </c>
     </row>
     <row r="37" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B37" s="24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C37" s="23">
+        <v>9.34</v>
+      </c>
+      <c r="D37" s="23">
         <v>9.4600000000000009</v>
       </c>
-      <c r="D37" s="23">
-        <v>9.64</v>
-      </c>
       <c r="E37" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F37" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I37" s="6">
-        <v>9.4277100000000004E-7</v>
+        <v>5.34078E-8</v>
       </c>
       <c r="J37" s="22">
-        <v>9.4277100000000004E-7</v>
+        <v>5.34078E-8</v>
       </c>
       <c r="K37" s="26" t="s">
         <v>86</v>
       </c>
       <c r="M37" s="21">
-        <v>0.99999905722899995</v>
+        <v>0.99999994659220004</v>
       </c>
       <c r="N37" s="22">
-        <v>0.99999905722899995</v>
+        <v>0.99999994659220004</v>
       </c>
       <c r="O37" s="22">
-        <v>1.8855420000000001E-6</v>
+        <v>1.068156E-7</v>
       </c>
       <c r="P37" s="22">
-        <v>1.8855420000000001E-6</v>
+        <v>1.068156E-7</v>
       </c>
       <c r="Q37" s="23">
-        <v>3.3333333333333333E-6</v>
+        <v>3.3333333333333335E-7</v>
       </c>
       <c r="R37" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S37" s="23" t="s">
         <v>86</v>
@@ -2639,53 +2588,53 @@
       </c>
       <c r="U37" s="22">
         <f t="shared" si="0"/>
-        <v>9.4277100004536152E-7</v>
+        <v>5.3407799960325519E-8</v>
       </c>
       <c r="V37" s="6">
         <f t="shared" si="1"/>
-        <v>9.4277100004536152E-7</v>
+        <v>5.3407799960325519E-8</v>
       </c>
     </row>
     <row r="38" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B38" s="24" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C38" s="23">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="D38" s="23">
         <v>9.64</v>
       </c>
-      <c r="D38" s="23">
-        <v>9.76</v>
-      </c>
       <c r="E38" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F38" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I38" s="6">
-        <v>6.3721699999999995E-7</v>
+        <v>9.4277100000000004E-7</v>
       </c>
       <c r="J38" s="22">
-        <v>6.3721699999999995E-7</v>
+        <v>9.4277100000000004E-7</v>
       </c>
       <c r="K38" s="26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="M38" s="21">
-        <v>0.99999936278299995</v>
+        <v>0.99999905722899995</v>
       </c>
       <c r="N38" s="22">
-        <v>0.99999936278299995</v>
+        <v>0.99999905722899995</v>
       </c>
       <c r="O38" s="22">
-        <v>1.2744339999999999E-6</v>
+        <v>1.8855420000000001E-6</v>
       </c>
       <c r="P38" s="22">
-        <v>1.2744339999999999E-6</v>
+        <v>1.8855420000000001E-6</v>
       </c>
       <c r="Q38" s="23">
         <v>3.3333333333333333E-6</v>
@@ -2694,122 +2643,122 @@
         <v>2</v>
       </c>
       <c r="S38" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="T38" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U38" s="22">
         <f t="shared" si="0"/>
-        <v>6.372170000545907E-7</v>
+        <v>9.4277100004536152E-7</v>
       </c>
       <c r="V38" s="6">
         <f t="shared" si="1"/>
-        <v>6.372170000545907E-7</v>
+        <v>9.4277100004536152E-7</v>
       </c>
     </row>
     <row r="39" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B39" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C39" s="23">
+        <v>9.64</v>
+      </c>
+      <c r="D39" s="23">
         <v>9.76</v>
       </c>
-      <c r="D39" s="23">
-        <v>10.01</v>
-      </c>
       <c r="E39" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F39" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I39" s="6">
-        <v>1.9927399999999999E-7</v>
+        <v>6.3721699999999995E-7</v>
       </c>
       <c r="J39" s="22">
-        <v>1.9927399999999999E-7</v>
+        <v>6.3721699999999995E-7</v>
       </c>
       <c r="K39" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M39" s="21">
-        <v>0.99999980072600003</v>
+        <v>0.99999936278299995</v>
       </c>
       <c r="N39" s="22">
-        <v>0.99999980072600003</v>
+        <v>0.99999936278299995</v>
       </c>
       <c r="O39" s="22">
-        <v>3.9854799999999998E-7</v>
+        <v>1.2744339999999999E-6</v>
       </c>
       <c r="P39" s="22">
-        <v>3.9854799999999998E-7</v>
+        <v>1.2744339999999999E-6</v>
       </c>
       <c r="Q39" s="23">
-        <v>3.3333333333333335E-7</v>
+        <v>3.3333333333333333E-6</v>
       </c>
       <c r="R39" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S39" s="23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="T39" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U39" s="22">
         <f t="shared" si="0"/>
-        <v>1.9927399996788608E-7</v>
+        <v>6.372170000545907E-7</v>
       </c>
       <c r="V39" s="6">
         <f t="shared" si="1"/>
-        <v>1.9927399996788608E-7</v>
+        <v>6.372170000545907E-7</v>
       </c>
     </row>
     <row r="40" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B40" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C40" s="23">
+        <v>9.76</v>
+      </c>
+      <c r="D40" s="23">
         <v>10.01</v>
       </c>
-      <c r="D40" s="23">
-        <v>10.59</v>
-      </c>
       <c r="E40" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F40" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I40" s="6">
-        <v>2.4589300000000002E-7</v>
+        <v>1.9927399999999999E-7</v>
       </c>
       <c r="J40" s="22">
-        <v>2.4589300000000002E-7</v>
+        <v>1.9927399999999999E-7</v>
       </c>
       <c r="K40" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M40" s="21">
-        <v>0.99999975410700004</v>
+        <v>0.99999980072600003</v>
       </c>
       <c r="N40" s="22">
-        <v>0.99999975410700004</v>
+        <v>0.99999980072600003</v>
       </c>
       <c r="O40" s="22">
-        <v>4.9178600000000003E-7</v>
+        <v>3.9854799999999998E-7</v>
       </c>
       <c r="P40" s="22">
-        <v>4.9178600000000003E-7</v>
+        <v>3.9854799999999998E-7</v>
       </c>
       <c r="Q40" s="23">
         <v>3.3333333333333335E-7</v>
@@ -2818,60 +2767,60 @@
         <v>1</v>
       </c>
       <c r="S40" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T40" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U40" s="22">
         <f t="shared" si="0"/>
-        <v>2.4589299996158331E-7</v>
+        <v>1.9927399996788608E-7</v>
       </c>
       <c r="V40" s="6">
         <f t="shared" si="1"/>
-        <v>2.4589299996158331E-7</v>
+        <v>1.9927399996788608E-7</v>
       </c>
     </row>
     <row r="41" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B41" s="24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C41" s="23">
+        <v>10.01</v>
+      </c>
+      <c r="D41" s="23">
         <v>10.59</v>
       </c>
-      <c r="D41" s="23">
-        <v>11.11</v>
-      </c>
       <c r="E41" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I41" s="6">
-        <v>9.85034E-8</v>
+        <v>2.4589300000000002E-7</v>
       </c>
       <c r="J41" s="22">
-        <v>9.85034E-8</v>
+        <v>2.4589300000000002E-7</v>
       </c>
       <c r="K41" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M41" s="21">
-        <v>0.99999990149660001</v>
+        <v>0.99999975410700004</v>
       </c>
       <c r="N41" s="22">
-        <v>0.99999990149660001</v>
+        <v>0.99999975410700004</v>
       </c>
       <c r="O41" s="22">
-        <v>1.970068E-7</v>
+        <v>4.9178600000000003E-7</v>
       </c>
       <c r="P41" s="22">
-        <v>1.970068E-7</v>
+        <v>4.9178600000000003E-7</v>
       </c>
       <c r="Q41" s="23">
         <v>3.3333333333333335E-7</v>
@@ -2880,60 +2829,60 @@
         <v>1</v>
       </c>
       <c r="S41" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T41" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U41" s="22">
         <f t="shared" si="0"/>
-        <v>9.8503399992289076E-8</v>
+        <v>2.4589299996158331E-7</v>
       </c>
       <c r="V41" s="6">
         <f t="shared" si="1"/>
-        <v>9.8503399992289076E-8</v>
+        <v>2.4589299996158331E-7</v>
       </c>
     </row>
     <row r="42" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B42" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C42" s="23">
+        <v>10.59</v>
+      </c>
+      <c r="D42" s="23">
         <v>11.11</v>
       </c>
-      <c r="D42" s="23">
-        <v>11.64</v>
-      </c>
       <c r="E42" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F42" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I42" s="6">
-        <v>1.44241E-7</v>
+        <v>9.85034E-8</v>
       </c>
       <c r="J42" s="22">
-        <v>1.44241E-7</v>
+        <v>9.85034E-8</v>
       </c>
       <c r="K42" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M42" s="21">
-        <v>0.99999985575899997</v>
+        <v>0.99999990149660001</v>
       </c>
       <c r="N42" s="22">
-        <v>0.99999985575899997</v>
+        <v>0.99999990149660001</v>
       </c>
       <c r="O42" s="22">
-        <v>2.88482E-7</v>
+        <v>1.970068E-7</v>
       </c>
       <c r="P42" s="22">
-        <v>2.88482E-7</v>
+        <v>1.970068E-7</v>
       </c>
       <c r="Q42" s="23">
         <v>3.3333333333333335E-7</v>
@@ -2942,60 +2891,60 @@
         <v>1</v>
       </c>
       <c r="S42" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T42" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U42" s="22">
         <f t="shared" si="0"/>
-        <v>1.4424100003296303E-7</v>
+        <v>9.8503399992289076E-8</v>
       </c>
       <c r="V42" s="6">
         <f t="shared" si="1"/>
-        <v>1.4424100003296303E-7</v>
+        <v>9.8503399992289076E-8</v>
       </c>
     </row>
     <row r="43" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B43" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C43" s="23">
+        <v>11.11</v>
+      </c>
+      <c r="D43" s="23">
         <v>11.64</v>
       </c>
-      <c r="D43" s="23">
-        <v>12.16</v>
-      </c>
       <c r="E43" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I43" s="6">
-        <v>6.5282899999999998E-8</v>
+        <v>1.44241E-7</v>
       </c>
       <c r="J43" s="22">
-        <v>6.5282899999999998E-8</v>
+        <v>1.44241E-7</v>
       </c>
       <c r="K43" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M43" s="21">
-        <v>0.99999993471710003</v>
+        <v>0.99999985575899997</v>
       </c>
       <c r="N43" s="22">
-        <v>0.99999993471710003</v>
+        <v>0.99999985575899997</v>
       </c>
       <c r="O43" s="22">
-        <v>1.305658E-7</v>
+        <v>2.88482E-7</v>
       </c>
       <c r="P43" s="22">
-        <v>1.305658E-7</v>
+        <v>2.88482E-7</v>
       </c>
       <c r="Q43" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3004,60 +2953,60 @@
         <v>1</v>
       </c>
       <c r="S43" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T43" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U43" s="22">
         <f t="shared" si="0"/>
-        <v>6.5282899974761222E-8</v>
+        <v>1.4424100003296303E-7</v>
       </c>
       <c r="V43" s="6">
         <f t="shared" si="1"/>
-        <v>6.5282899974761222E-8</v>
+        <v>1.4424100003296303E-7</v>
       </c>
     </row>
     <row r="44" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B44" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C44" s="23">
+        <v>11.64</v>
+      </c>
+      <c r="D44" s="23">
         <v>12.16</v>
       </c>
-      <c r="D44" s="23">
-        <v>12.69</v>
-      </c>
       <c r="E44" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F44" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I44" s="6">
-        <v>1.1980900000000001E-7</v>
+        <v>6.5282899999999998E-8</v>
       </c>
       <c r="J44" s="22">
-        <v>1.1980900000000001E-7</v>
+        <v>6.5282899999999998E-8</v>
       </c>
       <c r="K44" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M44" s="21">
-        <v>0.99999988019099995</v>
+        <v>0.99999993471710003</v>
       </c>
       <c r="N44" s="22">
-        <v>0.99999988019099995</v>
+        <v>0.99999993471710003</v>
       </c>
       <c r="O44" s="22">
-        <v>2.3961800000000002E-7</v>
+        <v>1.305658E-7</v>
       </c>
       <c r="P44" s="22">
-        <v>2.3961800000000002E-7</v>
+        <v>1.305658E-7</v>
       </c>
       <c r="Q44" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3066,60 +3015,60 @@
         <v>1</v>
       </c>
       <c r="S44" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T44" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U44" s="22">
         <f t="shared" si="0"/>
-        <v>1.1980900005426065E-7</v>
+        <v>6.5282899974761222E-8</v>
       </c>
       <c r="V44" s="6">
         <f t="shared" si="1"/>
-        <v>1.1980900005426065E-7</v>
+        <v>6.5282899974761222E-8</v>
       </c>
     </row>
     <row r="45" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B45" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C45" s="23">
+        <v>12.16</v>
+      </c>
+      <c r="D45" s="23">
         <v>12.69</v>
       </c>
-      <c r="D45" s="23">
-        <v>13.19</v>
-      </c>
       <c r="E45" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F45" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I45" s="6">
-        <v>1.39635E-8</v>
+        <v>1.1980900000000001E-7</v>
       </c>
       <c r="J45" s="22">
-        <v>1.39635E-8</v>
+        <v>1.1980900000000001E-7</v>
       </c>
       <c r="K45" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M45" s="21">
-        <v>0.99999998603649998</v>
+        <v>0.99999988019099995</v>
       </c>
       <c r="N45" s="22">
-        <v>0.99999998603649998</v>
+        <v>0.99999988019099995</v>
       </c>
       <c r="O45" s="22">
-        <v>2.7926999999999999E-8</v>
+        <v>2.3961800000000002E-7</v>
       </c>
       <c r="P45" s="22">
-        <v>2.7926999999999999E-8</v>
+        <v>2.3961800000000002E-7</v>
       </c>
       <c r="Q45" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3128,60 +3077,60 @@
         <v>1</v>
       </c>
       <c r="S45" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T45" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U45" s="22">
         <f t="shared" si="0"/>
-        <v>1.3963500022917685E-8</v>
+        <v>1.1980900005426065E-7</v>
       </c>
       <c r="V45" s="6">
         <f t="shared" si="1"/>
-        <v>1.3963500022917685E-8</v>
+        <v>1.1980900005426065E-7</v>
       </c>
     </row>
     <row r="46" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B46" s="24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C46" s="23">
+        <v>12.69</v>
+      </c>
+      <c r="D46" s="23">
         <v>13.19</v>
       </c>
-      <c r="D46" s="23">
-        <v>13.46</v>
-      </c>
       <c r="E46" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F46" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I46" s="6">
-        <v>8.9153699999999996E-9</v>
+        <v>1.39635E-8</v>
       </c>
       <c r="J46" s="22">
-        <v>8.9153699999999996E-9</v>
+        <v>1.39635E-8</v>
       </c>
       <c r="K46" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M46" s="21">
-        <v>0.99999999108463</v>
+        <v>0.99999998603649998</v>
       </c>
       <c r="N46" s="22">
-        <v>0.99999999108463</v>
+        <v>0.99999998603649998</v>
       </c>
       <c r="O46" s="22">
-        <v>1.7830739999999999E-8</v>
+        <v>2.7926999999999999E-8</v>
       </c>
       <c r="P46" s="22">
-        <v>1.7830739999999999E-8</v>
+        <v>2.7926999999999999E-8</v>
       </c>
       <c r="Q46" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3190,60 +3139,60 @@
         <v>1</v>
       </c>
       <c r="S46" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T46" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U46" s="22">
         <f t="shared" si="0"/>
-        <v>8.9153699978083978E-9</v>
+        <v>1.3963500022917685E-8</v>
       </c>
       <c r="V46" s="6">
         <f t="shared" si="1"/>
-        <v>8.9153699978083978E-9</v>
+        <v>1.3963500022917685E-8</v>
       </c>
     </row>
     <row r="47" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B47" s="24" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C47" s="23">
+        <v>13.19</v>
+      </c>
+      <c r="D47" s="23">
         <v>13.46</v>
       </c>
-      <c r="D47" s="23">
-        <v>13.84</v>
-      </c>
       <c r="E47" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F47" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I47" s="6">
-        <v>8.0028099999999996E-9</v>
+        <v>8.9153699999999996E-9</v>
       </c>
       <c r="J47" s="22">
-        <v>8.0028099999999996E-9</v>
+        <v>8.9153699999999996E-9</v>
       </c>
       <c r="K47" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M47" s="21">
-        <v>0.99999999199719003</v>
+        <v>0.99999999108463</v>
       </c>
       <c r="N47" s="22">
-        <v>0.99999999199719003</v>
+        <v>0.99999999108463</v>
       </c>
       <c r="O47" s="22">
-        <v>1.6005619999999999E-8</v>
+        <v>1.7830739999999999E-8</v>
       </c>
       <c r="P47" s="22">
-        <v>1.6005619999999999E-8</v>
+        <v>1.7830739999999999E-8</v>
       </c>
       <c r="Q47" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3252,60 +3201,60 @@
         <v>1</v>
       </c>
       <c r="S47" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T47" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U47" s="22">
         <f t="shared" si="0"/>
-        <v>8.0028099702644795E-9</v>
+        <v>8.9153699978083978E-9</v>
       </c>
       <c r="V47" s="6">
         <f t="shared" si="1"/>
-        <v>8.0028099702644795E-9</v>
+        <v>8.9153699978083978E-9</v>
       </c>
     </row>
     <row r="48" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B48" s="24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C48" s="23">
+        <v>13.46</v>
+      </c>
+      <c r="D48" s="23">
         <v>13.84</v>
       </c>
-      <c r="D48" s="23">
-        <v>14.06</v>
-      </c>
       <c r="E48" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F48" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I48" s="6">
-        <v>5.3886199999999999E-9</v>
+        <v>8.0028099999999996E-9</v>
       </c>
       <c r="J48" s="22">
-        <v>5.3886199999999999E-9</v>
+        <v>8.0028099999999996E-9</v>
       </c>
       <c r="K48" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M48" s="21">
-        <v>0.99999999461138001</v>
+        <v>0.99999999199719003</v>
       </c>
       <c r="N48" s="22">
-        <v>0.99999999461138001</v>
+        <v>0.99999999199719003</v>
       </c>
       <c r="O48" s="22">
-        <v>1.077724E-8</v>
+        <v>1.6005619999999999E-8</v>
       </c>
       <c r="P48" s="22">
-        <v>1.077724E-8</v>
+        <v>1.6005619999999999E-8</v>
       </c>
       <c r="Q48" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3314,60 +3263,60 @@
         <v>1</v>
       </c>
       <c r="S48" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T48" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U48" s="22">
         <f t="shared" si="0"/>
-        <v>5.3886199946617808E-9</v>
+        <v>8.0028099702644795E-9</v>
       </c>
       <c r="V48" s="6">
         <f t="shared" si="1"/>
-        <v>5.3886199946617808E-9</v>
+        <v>8.0028099702644795E-9</v>
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B49" s="24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C49" s="23">
+        <v>13.84</v>
+      </c>
+      <c r="D49" s="23">
         <v>14.06</v>
       </c>
-      <c r="D49" s="23">
-        <v>14.19</v>
-      </c>
       <c r="E49" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F49" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I49" s="6">
-        <v>3.86521E-8</v>
+        <v>5.3886199999999999E-9</v>
       </c>
       <c r="J49" s="22">
-        <v>3.86521E-8</v>
+        <v>5.3886199999999999E-9</v>
       </c>
       <c r="K49" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M49" s="21">
-        <v>0.99999996134790003</v>
+        <v>0.99999999461138001</v>
       </c>
       <c r="N49" s="22">
-        <v>0.99999996134790003</v>
+        <v>0.99999999461138001</v>
       </c>
       <c r="O49" s="22">
-        <v>7.7304199999999999E-8</v>
+        <v>1.077724E-8</v>
       </c>
       <c r="P49" s="22">
-        <v>7.7304199999999999E-8</v>
+        <v>1.077724E-8</v>
       </c>
       <c r="Q49" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3376,60 +3325,60 @@
         <v>1</v>
       </c>
       <c r="S49" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T49" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U49" s="22">
         <f t="shared" si="0"/>
-        <v>3.8652099965119646E-8</v>
+        <v>5.3886199946617808E-9</v>
       </c>
       <c r="V49" s="6">
         <f t="shared" si="1"/>
-        <v>3.8652099965119646E-8</v>
+        <v>5.3886199946617808E-9</v>
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B50" s="24" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C50" s="23">
+        <v>14.06</v>
+      </c>
+      <c r="D50" s="23">
         <v>14.19</v>
       </c>
-      <c r="D50" s="23">
-        <v>14.49</v>
-      </c>
       <c r="E50" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F50" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G50" s="6"/>
       <c r="H50" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I50" s="6">
-        <v>2.0736699999999999E-8</v>
+        <v>3.86521E-8</v>
       </c>
       <c r="J50" s="22">
-        <v>2.0736699999999999E-8</v>
+        <v>3.86521E-8</v>
       </c>
       <c r="K50" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M50" s="21">
-        <v>0.99999997926329998</v>
+        <v>0.99999996134790003</v>
       </c>
       <c r="N50" s="22">
-        <v>0.99999997926329998</v>
+        <v>0.99999996134790003</v>
       </c>
       <c r="O50" s="22">
-        <v>4.1473399999999999E-8</v>
+        <v>7.7304199999999999E-8</v>
       </c>
       <c r="P50" s="22">
-        <v>4.1473399999999999E-8</v>
+        <v>7.7304199999999999E-8</v>
       </c>
       <c r="Q50" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3438,60 +3387,60 @@
         <v>1</v>
       </c>
       <c r="S50" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T50" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U50" s="22">
         <f t="shared" si="0"/>
-        <v>2.0736700023782362E-8</v>
+        <v>3.8652099965119646E-8</v>
       </c>
       <c r="V50" s="6">
         <f t="shared" si="1"/>
-        <v>2.0736700023782362E-8</v>
+        <v>3.8652099965119646E-8</v>
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B51" s="24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C51" s="23">
+        <v>14.19</v>
+      </c>
+      <c r="D51" s="23">
         <v>14.49</v>
       </c>
-      <c r="D51" s="23">
-        <v>15.02</v>
-      </c>
       <c r="E51" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F51" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G51" s="6"/>
       <c r="H51" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I51" s="6">
-        <v>1.10534E-8</v>
+        <v>2.0736699999999999E-8</v>
       </c>
       <c r="J51" s="22">
-        <v>1.10534E-8</v>
+        <v>2.0736699999999999E-8</v>
       </c>
       <c r="K51" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M51" s="21">
-        <v>0.99999998894660003</v>
+        <v>0.99999997926329998</v>
       </c>
       <c r="N51" s="22">
-        <v>0.99999998894660003</v>
+        <v>0.99999997926329998</v>
       </c>
       <c r="O51" s="22">
-        <v>2.21068E-8</v>
+        <v>4.1473399999999999E-8</v>
       </c>
       <c r="P51" s="22">
-        <v>2.21068E-8</v>
+        <v>4.1473399999999999E-8</v>
       </c>
       <c r="Q51" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3500,60 +3449,60 @@
         <v>1</v>
       </c>
       <c r="S51" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T51" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U51" s="22">
         <f t="shared" si="0"/>
-        <v>1.1053399973093292E-8</v>
+        <v>2.0736700023782362E-8</v>
       </c>
       <c r="V51" s="6">
         <f t="shared" si="1"/>
-        <v>1.1053399973093292E-8</v>
+        <v>2.0736700023782362E-8</v>
       </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B52" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C52" s="23">
+        <v>14.49</v>
+      </c>
+      <c r="D52" s="23">
         <v>15.02</v>
       </c>
-      <c r="D52" s="23">
-        <v>15.54</v>
-      </c>
       <c r="E52" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F52" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G52" s="6"/>
       <c r="H52" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I52" s="6">
-        <v>9.6114199999999994E-8</v>
+        <v>1.10534E-8</v>
       </c>
       <c r="J52" s="22">
-        <v>9.6114199999999994E-8</v>
+        <v>1.10534E-8</v>
       </c>
       <c r="K52" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M52" s="21">
-        <v>0.99999990388579996</v>
+        <v>0.99999998894660003</v>
       </c>
       <c r="N52" s="22">
-        <v>0.99999990388579996</v>
+        <v>0.99999998894660003</v>
       </c>
       <c r="O52" s="22">
-        <v>1.9222839999999999E-7</v>
+        <v>2.21068E-8</v>
       </c>
       <c r="P52" s="22">
-        <v>1.9222839999999999E-7</v>
+        <v>2.21068E-8</v>
       </c>
       <c r="Q52" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3562,60 +3511,60 @@
         <v>1</v>
       </c>
       <c r="S52" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T52" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U52" s="22">
         <f t="shared" si="0"/>
-        <v>9.6114200043295739E-8</v>
+        <v>1.1053399973093292E-8</v>
       </c>
       <c r="V52" s="6">
         <f t="shared" si="1"/>
-        <v>9.6114200043295739E-8</v>
+        <v>1.1053399973093292E-8</v>
       </c>
     </row>
     <row r="53" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B53" s="24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C53" s="23">
+        <v>15.02</v>
+      </c>
+      <c r="D53" s="23">
         <v>15.54</v>
       </c>
-      <c r="D53" s="23">
-        <v>16.059999999999999</v>
-      </c>
       <c r="E53" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F53" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G53" s="6"/>
       <c r="H53" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I53" s="6">
-        <v>3.7022200000000003E-8</v>
+        <v>9.6114199999999994E-8</v>
       </c>
       <c r="J53" s="22">
-        <v>3.7022200000000003E-8</v>
+        <v>9.6114199999999994E-8</v>
       </c>
       <c r="K53" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M53" s="21">
-        <v>0.99999996297780003</v>
+        <v>0.99999990388579996</v>
       </c>
       <c r="N53" s="22">
-        <v>0.99999996297780003</v>
+        <v>0.99999990388579996</v>
       </c>
       <c r="O53" s="22">
-        <v>7.4044400000000006E-8</v>
+        <v>1.9222839999999999E-7</v>
       </c>
       <c r="P53" s="22">
-        <v>7.4044400000000006E-8</v>
+        <v>1.9222839999999999E-7</v>
       </c>
       <c r="Q53" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3624,60 +3573,60 @@
         <v>1</v>
       </c>
       <c r="S53" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T53" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U53" s="22">
         <f t="shared" si="0"/>
-        <v>3.7022199972369663E-8</v>
+        <v>9.6114200043295739E-8</v>
       </c>
       <c r="V53" s="6">
         <f t="shared" si="1"/>
-        <v>3.7022199972369663E-8</v>
+        <v>9.6114200043295739E-8</v>
       </c>
     </row>
     <row r="54" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B54" s="24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="23">
+        <v>15.54</v>
+      </c>
+      <c r="D54" s="23">
         <v>16.059999999999999</v>
       </c>
-      <c r="D54" s="23">
-        <v>16.59</v>
-      </c>
       <c r="E54" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F54" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G54" s="6"/>
       <c r="H54" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I54" s="6">
-        <v>2.4325699999999999E-8</v>
+        <v>3.7022200000000003E-8</v>
       </c>
       <c r="J54" s="22">
-        <v>2.4325699999999999E-8</v>
+        <v>3.7022200000000003E-8</v>
       </c>
       <c r="K54" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M54" s="21">
-        <v>0.99999997567429999</v>
+        <v>0.99999996297780003</v>
       </c>
       <c r="N54" s="22">
-        <v>0.99999997567429999</v>
+        <v>0.99999996297780003</v>
       </c>
       <c r="O54" s="22">
-        <v>4.8651399999999998E-8</v>
+        <v>7.4044400000000006E-8</v>
       </c>
       <c r="P54" s="22">
-        <v>4.8651399999999998E-8</v>
+        <v>7.4044400000000006E-8</v>
       </c>
       <c r="Q54" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3686,60 +3635,60 @@
         <v>1</v>
       </c>
       <c r="S54" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T54" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U54" s="22">
         <f t="shared" si="0"/>
-        <v>2.4325700009875106E-8</v>
+        <v>3.7022199972369663E-8</v>
       </c>
       <c r="V54" s="6">
         <f t="shared" si="1"/>
-        <v>2.4325700009875106E-8</v>
+        <v>3.7022199972369663E-8</v>
       </c>
     </row>
     <row r="55" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B55" s="24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C55" s="23">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="D55" s="23">
         <v>16.59</v>
       </c>
-      <c r="D55" s="23">
-        <v>17.11</v>
-      </c>
       <c r="E55" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F55" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G55" s="6"/>
       <c r="H55" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I55" s="6">
-        <v>1.49228E-8</v>
+        <v>2.4325699999999999E-8</v>
       </c>
       <c r="J55" s="22">
-        <v>1.49228E-8</v>
+        <v>2.4325699999999999E-8</v>
       </c>
       <c r="K55" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M55" s="21">
-        <v>0.9999999850772</v>
+        <v>0.99999997567429999</v>
       </c>
       <c r="N55" s="22">
-        <v>0.9999999850772</v>
+        <v>0.99999997567429999</v>
       </c>
       <c r="O55" s="22">
-        <v>2.98456E-8</v>
+        <v>4.8651399999999998E-8</v>
       </c>
       <c r="P55" s="22">
-        <v>2.98456E-8</v>
+        <v>4.8651399999999998E-8</v>
       </c>
       <c r="Q55" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3748,60 +3697,60 @@
         <v>1</v>
       </c>
       <c r="S55" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T55" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U55" s="22">
         <f t="shared" si="0"/>
-        <v>1.4922799995709113E-8</v>
+        <v>2.4325700009875106E-8</v>
       </c>
       <c r="V55" s="6">
         <f t="shared" si="1"/>
-        <v>1.4922799995709113E-8</v>
+        <v>2.4325700009875106E-8</v>
       </c>
     </row>
     <row r="56" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B56" s="24" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C56" s="23">
+        <v>16.59</v>
+      </c>
+      <c r="D56" s="23">
         <v>17.11</v>
       </c>
-      <c r="D56" s="23">
-        <v>17.71</v>
-      </c>
       <c r="E56" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F56" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G56" s="6"/>
       <c r="H56" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I56" s="6">
-        <v>6.2831800000000005E-8</v>
+        <v>1.49228E-8</v>
       </c>
       <c r="J56" s="22">
-        <v>6.2831800000000005E-8</v>
+        <v>1.49228E-8</v>
       </c>
       <c r="K56" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M56" s="21">
-        <v>0.99999993716820001</v>
+        <v>0.9999999850772</v>
       </c>
       <c r="N56" s="22">
-        <v>0.99999993716820001</v>
+        <v>0.9999999850772</v>
       </c>
       <c r="O56" s="22">
-        <v>1.2566360000000001E-7</v>
+        <v>2.98456E-8</v>
       </c>
       <c r="P56" s="22">
-        <v>1.2566360000000001E-7</v>
+        <v>2.98456E-8</v>
       </c>
       <c r="Q56" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3810,60 +3759,60 @@
         <v>1</v>
       </c>
       <c r="S56" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T56" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U56" s="22">
         <f t="shared" si="0"/>
-        <v>6.2831799985119119E-8</v>
+        <v>1.4922799995709113E-8</v>
       </c>
       <c r="V56" s="6">
         <f t="shared" si="1"/>
-        <v>6.2831799985119119E-8</v>
+        <v>1.4922799995709113E-8</v>
       </c>
     </row>
     <row r="57" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B57" s="24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C57" s="23">
+        <v>17.11</v>
+      </c>
+      <c r="D57" s="23">
         <v>17.71</v>
       </c>
-      <c r="D57" s="23">
-        <v>17.809999999999999</v>
-      </c>
       <c r="E57" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F57" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I57" s="6">
-        <v>9.1854100000000002E-8</v>
+        <v>6.2831800000000005E-8</v>
       </c>
       <c r="J57" s="22">
-        <v>9.1854100000000002E-8</v>
+        <v>6.2831800000000005E-8</v>
       </c>
       <c r="K57" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M57" s="21">
-        <v>0.99999990814590001</v>
+        <v>0.99999993716820001</v>
       </c>
       <c r="N57" s="22">
-        <v>0.99999990814590001</v>
+        <v>0.99999993716820001</v>
       </c>
       <c r="O57" s="22">
-        <v>1.837082E-7</v>
+        <v>1.2566360000000001E-7</v>
       </c>
       <c r="P57" s="22">
-        <v>1.837082E-7</v>
+        <v>1.2566360000000001E-7</v>
       </c>
       <c r="Q57" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3872,60 +3821,60 @@
         <v>1</v>
       </c>
       <c r="S57" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T57" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U57" s="22">
         <f t="shared" si="0"/>
-        <v>9.1854099992794147E-8</v>
+        <v>6.2831799985119119E-8</v>
       </c>
       <c r="V57" s="6">
         <f t="shared" si="1"/>
-        <v>9.1854099992794147E-8</v>
+        <v>6.2831799985119119E-8</v>
       </c>
     </row>
     <row r="58" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B58" s="24" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C58" s="23">
+        <v>17.71</v>
+      </c>
+      <c r="D58" s="23">
         <v>17.809999999999999</v>
       </c>
-      <c r="D58" s="23">
-        <v>17.850000000000001</v>
-      </c>
       <c r="E58" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F58" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G58" s="6"/>
       <c r="H58" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I58" s="6">
-        <v>2.8090299999999998E-8</v>
+        <v>9.1854100000000002E-8</v>
       </c>
       <c r="J58" s="22">
-        <v>2.8090299999999998E-8</v>
+        <v>9.1854100000000002E-8</v>
       </c>
       <c r="K58" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M58" s="21">
-        <v>0.99999997190970003</v>
+        <v>0.99999990814590001</v>
       </c>
       <c r="N58" s="22">
-        <v>0.99999997190970003</v>
+        <v>0.99999990814590001</v>
       </c>
       <c r="O58" s="22">
-        <v>5.6180599999999997E-8</v>
+        <v>1.837082E-7</v>
       </c>
       <c r="P58" s="22">
-        <v>5.6180599999999997E-8</v>
+        <v>1.837082E-7</v>
       </c>
       <c r="Q58" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3934,60 +3883,60 @@
         <v>1</v>
       </c>
       <c r="S58" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T58" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U58" s="22">
         <f t="shared" si="0"/>
-        <v>2.8090299974969923E-8</v>
+        <v>9.1854099992794147E-8</v>
       </c>
       <c r="V58" s="6">
         <f t="shared" si="1"/>
-        <v>2.8090299974969923E-8</v>
+        <v>9.1854099992794147E-8</v>
       </c>
     </row>
     <row r="59" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B59" s="24" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C59" s="23">
+        <v>17.809999999999999</v>
+      </c>
+      <c r="D59" s="23">
         <v>17.850000000000001</v>
       </c>
-      <c r="D59" s="23">
-        <v>17.91</v>
-      </c>
       <c r="E59" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F59" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I59" s="6">
-        <v>6.3583000000000003E-9</v>
+        <v>2.8090299999999998E-8</v>
       </c>
       <c r="J59" s="22">
-        <v>6.3583000000000003E-9</v>
+        <v>2.8090299999999998E-8</v>
       </c>
       <c r="K59" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M59" s="21">
-        <v>0.9999999936417</v>
+        <v>0.99999997190970003</v>
       </c>
       <c r="N59" s="22">
-        <v>0.9999999936417</v>
+        <v>0.99999997190970003</v>
       </c>
       <c r="O59" s="22">
-        <v>1.2716600000000001E-8</v>
+        <v>5.6180599999999997E-8</v>
       </c>
       <c r="P59" s="22">
-        <v>1.2716600000000001E-8</v>
+        <v>5.6180599999999997E-8</v>
       </c>
       <c r="Q59" s="23">
         <v>3.3333333333333335E-7</v>
@@ -3996,60 +3945,60 @@
         <v>1</v>
       </c>
       <c r="S59" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T59" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U59" s="22">
         <f t="shared" si="0"/>
-        <v>6.3582999976219412E-9</v>
+        <v>2.8090299974969923E-8</v>
       </c>
       <c r="V59" s="6">
         <f t="shared" si="1"/>
-        <v>6.3582999976219412E-9</v>
+        <v>2.8090299974969923E-8</v>
       </c>
     </row>
     <row r="60" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B60" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C60" s="23">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="D60" s="23">
         <v>17.91</v>
       </c>
-      <c r="D60" s="23">
-        <v>18.29</v>
-      </c>
       <c r="E60" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F60" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I60" s="6">
-        <v>8.3426499999999996E-8</v>
+        <v>6.3583000000000003E-9</v>
       </c>
       <c r="J60" s="22">
-        <v>8.3426499999999996E-8</v>
+        <v>6.3583000000000003E-9</v>
       </c>
       <c r="K60" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M60" s="21">
-        <v>0.99999991657349996</v>
+        <v>0.9999999936417</v>
       </c>
       <c r="N60" s="22">
-        <v>0.99999991657349996</v>
+        <v>0.9999999936417</v>
       </c>
       <c r="O60" s="22">
-        <v>1.6685299999999999E-7</v>
+        <v>1.2716600000000001E-8</v>
       </c>
       <c r="P60" s="22">
-        <v>1.6685299999999999E-7</v>
+        <v>1.2716600000000001E-8</v>
       </c>
       <c r="Q60" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4058,60 +4007,60 @@
         <v>1</v>
       </c>
       <c r="S60" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T60" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U60" s="22">
         <f t="shared" si="0"/>
-        <v>8.3426500041561269E-8</v>
+        <v>6.3582999976219412E-9</v>
       </c>
       <c r="V60" s="6">
         <f t="shared" si="1"/>
-        <v>8.3426500041561269E-8</v>
+        <v>6.3582999976219412E-9</v>
       </c>
     </row>
     <row r="61" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B61" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C61" s="23">
+        <v>17.91</v>
+      </c>
+      <c r="D61" s="23">
         <v>18.29</v>
       </c>
-      <c r="D61" s="23">
-        <v>18.48</v>
-      </c>
       <c r="E61" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F61" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G61" s="6"/>
       <c r="H61" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I61" s="6">
-        <v>4.9951600000000001E-8</v>
+        <v>8.3426499999999996E-8</v>
       </c>
       <c r="J61" s="22">
-        <v>4.9951600000000001E-8</v>
+        <v>8.3426499999999996E-8</v>
       </c>
       <c r="K61" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M61" s="21">
-        <v>0.99999995004840003</v>
+        <v>0.99999991657349996</v>
       </c>
       <c r="N61" s="22">
-        <v>0.99999995004840003</v>
+        <v>0.99999991657349996</v>
       </c>
       <c r="O61" s="22">
-        <v>9.9903200000000002E-8</v>
+        <v>1.6685299999999999E-7</v>
       </c>
       <c r="P61" s="22">
-        <v>9.9903200000000002E-8</v>
+        <v>1.6685299999999999E-7</v>
       </c>
       <c r="Q61" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4120,60 +4069,60 @@
         <v>1</v>
       </c>
       <c r="S61" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T61" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U61" s="22">
         <f t="shared" si="0"/>
-        <v>4.9951599967457128E-8</v>
+        <v>8.3426500041561269E-8</v>
       </c>
       <c r="V61" s="6">
         <f t="shared" si="1"/>
-        <v>4.9951599967457128E-8</v>
+        <v>8.3426500041561269E-8</v>
       </c>
     </row>
     <row r="62" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B62" s="24" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C62" s="23">
+        <v>18.29</v>
+      </c>
+      <c r="D62" s="23">
         <v>18.48</v>
       </c>
-      <c r="D62" s="23">
-        <v>18.559999999999999</v>
-      </c>
       <c r="E62" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F62" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G62" s="6"/>
       <c r="H62" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I62" s="6">
-        <v>1.5906899999999999E-8</v>
+        <v>4.9951600000000001E-8</v>
       </c>
       <c r="J62" s="22">
-        <v>1.5906899999999999E-8</v>
+        <v>4.9951600000000001E-8</v>
       </c>
       <c r="K62" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M62" s="21">
-        <v>0.99999998409309998</v>
+        <v>0.99999995004840003</v>
       </c>
       <c r="N62" s="22">
-        <v>0.99999998409309998</v>
+        <v>0.99999995004840003</v>
       </c>
       <c r="O62" s="22">
-        <v>3.1813799999999999E-8</v>
+        <v>9.9903200000000002E-8</v>
       </c>
       <c r="P62" s="22">
-        <v>3.1813799999999999E-8</v>
+        <v>9.9903200000000002E-8</v>
       </c>
       <c r="Q62" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4182,58 +4131,60 @@
         <v>1</v>
       </c>
       <c r="S62" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T62" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U62" s="22">
         <f t="shared" si="0"/>
-        <v>1.5906900019402315E-8</v>
+        <v>4.9951599967457128E-8</v>
       </c>
       <c r="V62" s="6">
         <f t="shared" si="1"/>
-        <v>1.5906900019402315E-8</v>
+        <v>4.9951599967457128E-8</v>
       </c>
     </row>
     <row r="63" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B63" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C63" s="23">
+        <v>18.48</v>
+      </c>
+      <c r="D63" s="23">
         <v>18.559999999999999</v>
       </c>
-      <c r="D63" s="23">
-        <v>18.64</v>
-      </c>
       <c r="E63" s="25" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F63" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G63" s="6"/>
       <c r="H63" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I63" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="I63" s="6">
+        <v>1.5906899999999999E-8</v>
+      </c>
       <c r="J63" s="22">
-        <v>0</v>
+        <v>1.5906899999999999E-8</v>
       </c>
       <c r="K63" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M63" s="21">
-        <v>1</v>
+        <v>0.99999998409309998</v>
       </c>
       <c r="N63" s="22">
-        <v>1</v>
+        <v>0.99999998409309998</v>
       </c>
       <c r="O63" s="22">
-        <v>0</v>
+        <v>3.1813799999999999E-8</v>
       </c>
       <c r="P63" s="22">
-        <v>0</v>
+        <v>3.1813799999999999E-8</v>
       </c>
       <c r="Q63" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4242,60 +4193,58 @@
         <v>1</v>
       </c>
       <c r="S63" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T63" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U63" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5906900019402315E-8</v>
       </c>
       <c r="V63" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5906900019402315E-8</v>
       </c>
     </row>
     <row r="64" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B64" s="24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C64" s="23">
+        <v>18.559999999999999</v>
+      </c>
+      <c r="D64" s="23">
         <v>18.64</v>
       </c>
-      <c r="D64" s="23">
-        <v>18.66</v>
-      </c>
       <c r="E64" s="25" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F64" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G64" s="6"/>
       <c r="H64" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I64" s="6">
-        <v>9.1383000000000002E-9</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I64" s="6"/>
       <c r="J64" s="22">
-        <v>9.1383000000000002E-9</v>
+        <v>0</v>
       </c>
       <c r="K64" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M64" s="21">
-        <v>0.99999999086169999</v>
+        <v>1</v>
       </c>
       <c r="N64" s="22">
-        <v>0.99999999086169999</v>
+        <v>1</v>
       </c>
       <c r="O64" s="22">
-        <v>1.82766E-8</v>
+        <v>0</v>
       </c>
       <c r="P64" s="22">
-        <v>1.82766E-8</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4304,60 +4253,60 @@
         <v>1</v>
       </c>
       <c r="S64" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T64" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U64" s="22">
         <f t="shared" si="0"/>
-        <v>9.1383000055955677E-9</v>
+        <v>0</v>
       </c>
       <c r="V64" s="6">
         <f t="shared" si="1"/>
-        <v>9.1383000055955677E-9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B65" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="23">
+        <v>18.64</v>
+      </c>
+      <c r="D65" s="23">
         <v>18.66</v>
       </c>
-      <c r="D65" s="23">
-        <v>18.75</v>
-      </c>
       <c r="E65" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F65" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I65" s="6">
-        <v>1.4882800000000001E-8</v>
+        <v>9.1383000000000002E-9</v>
       </c>
       <c r="J65" s="22">
-        <v>1.4882800000000001E-8</v>
+        <v>9.1383000000000002E-9</v>
       </c>
       <c r="K65" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M65" s="21">
-        <v>0.99999998511720001</v>
+        <v>0.99999999086169999</v>
       </c>
       <c r="N65" s="22">
-        <v>0.99999998511720001</v>
+        <v>0.99999999086169999</v>
       </c>
       <c r="O65" s="22">
-        <v>2.9765600000000002E-8</v>
+        <v>1.82766E-8</v>
       </c>
       <c r="P65" s="22">
-        <v>2.9765600000000002E-8</v>
+        <v>1.82766E-8</v>
       </c>
       <c r="Q65" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4366,58 +4315,60 @@
         <v>1</v>
       </c>
       <c r="S65" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T65" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U65" s="22">
         <f t="shared" si="0"/>
-        <v>1.4882799992399498E-8</v>
+        <v>9.1383000055955677E-9</v>
       </c>
       <c r="V65" s="6">
         <f t="shared" si="1"/>
-        <v>1.4882799992399498E-8</v>
+        <v>9.1383000055955677E-9</v>
       </c>
     </row>
     <row r="66" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B66" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C66" s="23">
+        <v>18.66</v>
+      </c>
+      <c r="D66" s="23">
         <v>18.75</v>
       </c>
-      <c r="D66" s="23">
-        <v>19.670000000000002</v>
-      </c>
       <c r="E66" s="25" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="F66" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G66" s="6"/>
       <c r="H66" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="I66" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="I66" s="6">
+        <v>1.4882800000000001E-8</v>
+      </c>
       <c r="J66" s="22">
-        <v>0</v>
+        <v>1.4882800000000001E-8</v>
       </c>
       <c r="K66" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M66" s="21">
-        <v>1</v>
+        <v>0.99999998511720001</v>
       </c>
       <c r="N66" s="22">
-        <v>1</v>
+        <v>0.99999998511720001</v>
       </c>
       <c r="O66" s="22">
-        <v>0</v>
+        <v>2.9765600000000002E-8</v>
       </c>
       <c r="P66" s="22">
-        <v>0</v>
+        <v>2.9765600000000002E-8</v>
       </c>
       <c r="Q66" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4426,60 +4377,58 @@
         <v>1</v>
       </c>
       <c r="S66" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T66" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U66" s="22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.4882799992399498E-8</v>
       </c>
       <c r="V66" s="6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.4882799992399498E-8</v>
       </c>
     </row>
     <row r="67" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B67" s="24" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C67" s="23">
+        <v>18.75</v>
+      </c>
+      <c r="D67" s="23">
         <v>19.670000000000002</v>
       </c>
-      <c r="D67" s="23">
-        <v>19.809999999999999</v>
-      </c>
       <c r="E67" s="25" t="s">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="F67" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G67" s="6"/>
       <c r="H67" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="I67" s="6">
-        <v>1.20779E-8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I67" s="6"/>
       <c r="J67" s="22">
-        <v>1.20779E-8</v>
+        <v>0</v>
       </c>
       <c r="K67" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M67" s="21">
-        <v>0.99999998792209999</v>
+        <v>1</v>
       </c>
       <c r="N67" s="22">
-        <v>0.99999998792209999</v>
+        <v>1</v>
       </c>
       <c r="O67" s="22">
-        <v>2.41558E-8</v>
+        <v>0</v>
       </c>
       <c r="P67" s="22">
-        <v>2.41558E-8</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4488,60 +4437,60 @@
         <v>1</v>
       </c>
       <c r="S67" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T67" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U67" s="22">
         <f t="shared" si="0"/>
-        <v>1.2077900013451881E-8</v>
+        <v>0</v>
       </c>
       <c r="V67" s="6">
         <f t="shared" si="1"/>
-        <v>1.2077900013451881E-8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B68" s="24" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C68" s="23">
+        <v>19.670000000000002</v>
+      </c>
+      <c r="D68" s="23">
         <v>19.809999999999999</v>
       </c>
-      <c r="D68" s="23">
-        <v>19.989999999999998</v>
-      </c>
       <c r="E68" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F68" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G68" s="6"/>
       <c r="H68" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I68" s="6">
-        <v>2.1064100000000001E-8</v>
+        <v>1.20779E-8</v>
       </c>
       <c r="J68" s="22">
-        <v>2.1064100000000001E-8</v>
+        <v>1.20779E-8</v>
       </c>
       <c r="K68" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M68" s="21">
-        <v>0.99999997893589998</v>
+        <v>0.99999998792209999</v>
       </c>
       <c r="N68" s="22">
-        <v>0.99999997893589998</v>
+        <v>0.99999998792209999</v>
       </c>
       <c r="O68" s="22">
-        <v>4.2128200000000003E-8</v>
+        <v>2.41558E-8</v>
       </c>
       <c r="P68" s="22">
-        <v>4.2128200000000003E-8</v>
+        <v>2.41558E-8</v>
       </c>
       <c r="Q68" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4550,60 +4499,60 @@
         <v>1</v>
       </c>
       <c r="S68" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T68" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U68" s="22">
         <f t="shared" si="0"/>
-        <v>2.1064100019785315E-8</v>
+        <v>1.2077900013451881E-8</v>
       </c>
       <c r="V68" s="6">
         <f t="shared" si="1"/>
-        <v>2.1064100019785315E-8</v>
+        <v>1.2077900013451881E-8</v>
       </c>
     </row>
     <row r="69" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B69" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C69" s="23">
+        <v>19.809999999999999</v>
+      </c>
+      <c r="D69" s="23">
         <v>19.989999999999998</v>
       </c>
-      <c r="D69" s="23">
-        <v>20.49</v>
-      </c>
       <c r="E69" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F69" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G69" s="6"/>
       <c r="H69" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I69" s="6">
-        <v>2.8099799999999999E-8</v>
+        <v>2.1064100000000001E-8</v>
       </c>
       <c r="J69" s="22">
-        <v>2.8099799999999999E-8</v>
+        <v>2.1064100000000001E-8</v>
       </c>
       <c r="K69" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M69" s="21">
-        <v>0.99999997190019996</v>
+        <v>0.99999997893589998</v>
       </c>
       <c r="N69" s="22">
-        <v>0.99999997190019996</v>
+        <v>0.99999997893589998</v>
       </c>
       <c r="O69" s="22">
-        <v>5.6199599999999999E-8</v>
+        <v>4.2128200000000003E-8</v>
       </c>
       <c r="P69" s="22">
-        <v>5.6199599999999999E-8</v>
+        <v>4.2128200000000003E-8</v>
       </c>
       <c r="Q69" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4612,60 +4561,60 @@
         <v>1</v>
       </c>
       <c r="S69" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T69" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U69" s="22">
         <f t="shared" si="0"/>
-        <v>2.8099800042369338E-8</v>
+        <v>2.1064100019785315E-8</v>
       </c>
       <c r="V69" s="6">
         <f t="shared" si="1"/>
-        <v>2.8099800042369338E-8</v>
+        <v>2.1064100019785315E-8</v>
       </c>
     </row>
     <row r="70" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B70" s="24" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C70" s="23">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="D70" s="23">
         <v>20.49</v>
       </c>
-      <c r="D70" s="23">
-        <v>20.64</v>
-      </c>
       <c r="E70" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G70" s="6"/>
       <c r="H70" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I70" s="6">
-        <v>2.79756E-8</v>
+        <v>2.8099799999999999E-8</v>
       </c>
       <c r="J70" s="22">
-        <v>2.79756E-8</v>
+        <v>2.8099799999999999E-8</v>
       </c>
       <c r="K70" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M70" s="21">
-        <v>0.99999997202440005</v>
+        <v>0.99999997190019996</v>
       </c>
       <c r="N70" s="22">
-        <v>0.99999997202440005</v>
+        <v>0.99999997190019996</v>
       </c>
       <c r="O70" s="22">
-        <v>5.59512E-8</v>
+        <v>5.6199599999999999E-8</v>
       </c>
       <c r="P70" s="22">
-        <v>5.59512E-8</v>
+        <v>5.6199599999999999E-8</v>
       </c>
       <c r="Q70" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4674,60 +4623,60 @@
         <v>1</v>
       </c>
       <c r="S70" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T70" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U70" s="22">
         <f t="shared" si="0"/>
-        <v>2.7975599947716034E-8</v>
+        <v>2.8099800042369338E-8</v>
       </c>
       <c r="V70" s="6">
         <f t="shared" si="1"/>
-        <v>2.7975599947716034E-8</v>
+        <v>2.8099800042369338E-8</v>
       </c>
     </row>
     <row r="71" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B71" s="24" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C71" s="23">
+        <v>20.49</v>
+      </c>
+      <c r="D71" s="23">
         <v>20.64</v>
       </c>
-      <c r="D71" s="23">
-        <v>20.69</v>
-      </c>
       <c r="E71" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G71" s="6"/>
       <c r="H71" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I71" s="6">
-        <v>1.2314800000000001E-8</v>
+        <v>2.79756E-8</v>
       </c>
       <c r="J71" s="22">
-        <v>1.2314800000000001E-8</v>
+        <v>2.79756E-8</v>
       </c>
       <c r="K71" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M71" s="21">
-        <v>0.99999998768520004</v>
+        <v>0.99999997202440005</v>
       </c>
       <c r="N71" s="22">
-        <v>0.99999998768520004</v>
+        <v>0.99999997202440005</v>
       </c>
       <c r="O71" s="22">
-        <v>2.4629600000000001E-8</v>
+        <v>5.59512E-8</v>
       </c>
       <c r="P71" s="22">
-        <v>2.4629600000000001E-8</v>
+        <v>5.59512E-8</v>
       </c>
       <c r="Q71" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4736,60 +4685,60 @@
         <v>1</v>
       </c>
       <c r="S71" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T71" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U71" s="22">
         <f t="shared" si="0"/>
-        <v>1.2314799957557909E-8</v>
+        <v>2.7975599947716034E-8</v>
       </c>
       <c r="V71" s="6">
         <f t="shared" si="1"/>
-        <v>1.2314799957557909E-8</v>
+        <v>2.7975599947716034E-8</v>
       </c>
     </row>
     <row r="72" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B72" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C72" s="23">
+        <v>20.64</v>
+      </c>
+      <c r="D72" s="23">
         <v>20.69</v>
       </c>
-      <c r="D72" s="23">
-        <v>20.76</v>
-      </c>
       <c r="E72" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F72" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G72" s="6"/>
       <c r="H72" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I72" s="6">
-        <v>2.32604E-8</v>
+        <v>1.2314800000000001E-8</v>
       </c>
       <c r="J72" s="22">
-        <v>2.32604E-8</v>
+        <v>1.2314800000000001E-8</v>
       </c>
       <c r="K72" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M72" s="21">
-        <v>0.99999997673959995</v>
+        <v>0.99999998768520004</v>
       </c>
       <c r="N72" s="22">
-        <v>0.99999997673959995</v>
+        <v>0.99999998768520004</v>
       </c>
       <c r="O72" s="22">
-        <v>4.6520799999999999E-8</v>
+        <v>2.4629600000000001E-8</v>
       </c>
       <c r="P72" s="22">
-        <v>4.6520799999999999E-8</v>
+        <v>2.4629600000000001E-8</v>
       </c>
       <c r="Q72" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4798,60 +4747,60 @@
         <v>1</v>
       </c>
       <c r="S72" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T72" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U72" s="22">
         <f t="shared" si="0"/>
-        <v>2.326040005051766E-8</v>
+        <v>1.2314799957557909E-8</v>
       </c>
       <c r="V72" s="6">
         <f t="shared" si="1"/>
-        <v>2.326040005051766E-8</v>
+        <v>1.2314799957557909E-8</v>
       </c>
     </row>
     <row r="73" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B73" s="24" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C73" s="23">
+        <v>20.69</v>
+      </c>
+      <c r="D73" s="23">
         <v>20.76</v>
       </c>
-      <c r="D73" s="23">
-        <v>20.93</v>
-      </c>
       <c r="E73" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F73" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G73" s="6"/>
       <c r="H73" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I73" s="6">
-        <v>1.6673400000000002E-8</v>
+        <v>2.32604E-8</v>
       </c>
       <c r="J73" s="22">
-        <v>1.6673400000000002E-8</v>
+        <v>2.32604E-8</v>
       </c>
       <c r="K73" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M73" s="21">
-        <v>0.99999998332660001</v>
+        <v>0.99999997673959995</v>
       </c>
       <c r="N73" s="22">
-        <v>0.99999998332660001</v>
+        <v>0.99999997673959995</v>
       </c>
       <c r="O73" s="22">
-        <v>3.3346800000000003E-8</v>
+        <v>4.6520799999999999E-8</v>
       </c>
       <c r="P73" s="22">
-        <v>3.3346800000000003E-8</v>
+        <v>4.6520799999999999E-8</v>
       </c>
       <c r="Q73" s="23">
         <v>3.3333333333333335E-7</v>
@@ -4860,82 +4809,144 @@
         <v>1</v>
       </c>
       <c r="S73" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T73" s="23" t="b">
         <v>0</v>
       </c>
       <c r="U73" s="22">
         <f t="shared" si="0"/>
+        <v>2.326040005051766E-8</v>
+      </c>
+      <c r="V73" s="6">
+        <f t="shared" si="1"/>
+        <v>2.326040005051766E-8</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B74" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C74" s="23">
+        <v>20.76</v>
+      </c>
+      <c r="D74" s="23">
+        <v>20.93</v>
+      </c>
+      <c r="E74" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="6"/>
+      <c r="H74" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I74" s="6">
+        <v>1.6673400000000002E-8</v>
+      </c>
+      <c r="J74" s="22">
+        <v>1.6673400000000002E-8</v>
+      </c>
+      <c r="K74" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="M74" s="21">
+        <v>0.99999998332660001</v>
+      </c>
+      <c r="N74" s="22">
+        <v>0.99999998332660001</v>
+      </c>
+      <c r="O74" s="22">
+        <v>3.3346800000000003E-8</v>
+      </c>
+      <c r="P74" s="22">
+        <v>3.3346800000000003E-8</v>
+      </c>
+      <c r="Q74" s="23">
+        <v>3.3333333333333335E-7</v>
+      </c>
+      <c r="R74" s="23">
+        <v>1</v>
+      </c>
+      <c r="S74" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="T74" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="U74" s="22">
+        <f t="shared" si="0"/>
         <v>1.6673399994004967E-8</v>
       </c>
-      <c r="V73" s="6">
+      <c r="V74" s="6">
         <f t="shared" si="1"/>
         <v>1.6673399994004967E-8</v>
       </c>
     </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="B74" s="24"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="24"/>
-      <c r="G74" s="6"/>
-      <c r="H74" s="24"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="22"/>
-      <c r="K74" s="26"/>
-      <c r="M74" s="21"/>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="23"/>
-      <c r="S74" s="23"/>
-      <c r="T74" s="23"/>
-      <c r="U74" s="23"/>
-      <c r="V74" s="26"/>
-    </row>
-    <row r="75" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="27"/>
-      <c r="C75" s="28"/>
-      <c r="D75" s="28"/>
-      <c r="E75" s="29"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="30"/>
-      <c r="J75" s="31"/>
-      <c r="K75" s="32"/>
-      <c r="M75" s="33"/>
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="31"/>
-      <c r="Q75" s="28"/>
-      <c r="R75" s="28"/>
-      <c r="S75" s="28"/>
-      <c r="T75" s="28"/>
-      <c r="U75" s="28"/>
-      <c r="V75" s="8"/>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.25">
-      <c r="M76" s="34"/>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B75" s="24"/>
+      <c r="C75" s="23"/>
+      <c r="D75" s="23"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="24"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="26"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="23"/>
+      <c r="R75" s="23"/>
+      <c r="S75" s="23"/>
+      <c r="T75" s="23"/>
+      <c r="U75" s="23"/>
+      <c r="V75" s="26"/>
+    </row>
+    <row r="76" spans="2:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="27"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="27"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="27"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="31"/>
+      <c r="K76" s="32"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="31"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="31"/>
+      <c r="Q76" s="28"/>
+      <c r="R76" s="28"/>
+      <c r="S76" s="28"/>
+      <c r="T76" s="28"/>
+      <c r="U76" s="28"/>
+      <c r="V76" s="8"/>
     </row>
     <row r="77" spans="2:22" x14ac:dyDescent="0.25">
       <c r="M77" s="34"/>
     </row>
+    <row r="78" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="M78" s="34"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="G15:G75">
+  <conditionalFormatting sqref="G16:G76">
     <cfRule type="expression" dxfId="19" priority="14">
-      <formula>IF($E15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($E16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15:I75">
+  <conditionalFormatting sqref="I16:I76">
     <cfRule type="expression" dxfId="18" priority="13">
-      <formula>IF($H15="Nee",TRUE,FALSE)</formula>
+      <formula>IF($H16="Nee",TRUE,FALSE)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K75">
+  <conditionalFormatting sqref="K16:K76">
     <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
       <formula>"0"</formula>
     </cfRule>
@@ -4946,14 +4957,14 @@
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V74">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+  <conditionalFormatting sqref="V75">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>"0"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="equal">
       <formula>"ND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"D"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4964,7 +4975,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="15" operator="endsWith" id="{69D84305-AF99-4E6F-BC78-1631AD1057E7}">
-            <xm:f>RIGHT(K15,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
+            <xm:f>RIGHT(K16,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <xm:f>'\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -4975,7 +4986,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="16" operator="endsWith" id="{4E88307C-19BC-4E73-AEF1-B822E2BA75D7}">
-            <xm:f>RIGHT(K15,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
+            <xm:f>RIGHT(K16,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <xm:f>'\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -4986,7 +4997,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="17" operator="endsWith" id="{8A7FA5D1-7504-43A5-8F4E-57C4A78428FB}">
-            <xm:f>RIGHT(K15,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
+            <xm:f>RIGHT(K16,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <xm:f>'\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -4997,7 +5008,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="18" operator="endsWith" id="{3911F1C5-44CB-42A7-B280-8A16B8FC889D}">
-            <xm:f>RIGHT(K15,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
+            <xm:f>RIGHT(K16,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <xm:f>'\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -5008,7 +5019,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="19" operator="containsText" id="{5BEA2E3A-2ED8-4F02-B034-5033DA4E0D6E}">
-            <xm:f>NOT(ISERROR(SEARCH('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!,K15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!,K16)))</xm:f>
             <xm:f>'\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -5019,7 +5030,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="20" operator="containsText" id="{B23182EB-C4F7-4C5B-9505-5C7658518E5D}">
-            <xm:f>NOT(ISERROR(SEARCH('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!,K15)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!,K16)))</xm:f>
             <xm:f>'\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -5029,11 +5040,11 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>K15:K75</xm:sqref>
+          <xm:sqref>K16:K76</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="endsWith" priority="4" operator="endsWith" id="{B515F6B6-94AD-45E3-B1DA-025FDE839ACD}">
-            <xm:f>RIGHT(V74,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
+            <xm:f>RIGHT(V75,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <xm:f>'\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -5044,7 +5055,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="5" operator="endsWith" id="{53422836-2069-40B9-86BC-5F8A02FC8A9E}">
-            <xm:f>RIGHT(V74,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
+            <xm:f>RIGHT(V75,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <xm:f>'\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -5055,7 +5066,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="6" operator="endsWith" id="{C987C678-3A52-4EA1-BF6E-8B76ABE6C659}">
-            <xm:f>RIGHT(V74,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
+            <xm:f>RIGHT(V75,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <xm:f>'\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -5066,7 +5077,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="endsWith" priority="7" operator="endsWith" id="{29D7418F-C8AE-42DA-9DA1-624B050A7FB2}">
-            <xm:f>RIGHT(V74,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
+            <xm:f>RIGHT(V75,LEN('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!))='\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <xm:f>'\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -5077,7 +5088,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="8" operator="containsText" id="{16BE9998-F371-43DC-A092-C33F3981A385}">
-            <xm:f>NOT(ISERROR(SEARCH('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!,V74)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!,V75)))</xm:f>
             <xm:f>'\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -5088,7 +5099,7 @@
             </x14:dxf>
           </x14:cfRule>
           <x14:cfRule type="containsText" priority="9" operator="containsText" id="{59DBCE23-0C4E-469F-96D8-8FC175A93071}">
-            <xm:f>NOT(ISERROR(SEARCH('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!,V74)))</xm:f>
+            <xm:f>NOT(ISERROR(SEARCH('\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!,V75)))</xm:f>
             <xm:f>'\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Normen en duidingsklassen'!#REF!</xm:f>
             <x14:dxf>
               <fill>
@@ -5098,7 +5109,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>V74</xm:sqref>
+          <xm:sqref>V75</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5108,7 +5119,7 @@
           <x14:formula1>
             <xm:f>'C:\src\wbi-assemblage-rekenkern\benchmarktests\testdefinitions\[Benchmartktest_traject 14-2.xlsx]Informatiepagina'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>E76:E91 F15:F75</xm:sqref>
+          <xm:sqref>E77:E92 F16:F76</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
